--- a/Imagenes paginas web/Productos MIFERRE.xlsx
+++ b/Imagenes paginas web/Productos MIFERRE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Imagenes paginas web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC RYZEN 5\OneDrive\Escritorio\Trabajo\Imagenes paginas web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7817112-E1A6-4CD4-885C-95C715ADEBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CFC9E3-9F0A-49ED-949F-AF793E089515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" activeTab="1" xr2:uid="{2471D800-5301-4056-9942-9B68FF7895A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{2471D800-5301-4056-9942-9B68FF7895A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="124">
   <si>
     <t xml:space="preserve">CAT </t>
   </si>
@@ -379,22 +382,25 @@
     <t>Wengue</t>
   </si>
   <si>
-    <t>Wengue V2</t>
-  </si>
-  <si>
-    <t>2 fosas 1 ala</t>
-  </si>
-  <si>
-    <t>2 Fosas 2 Alas</t>
-  </si>
-  <si>
     <t>Toscana</t>
   </si>
   <si>
-    <t>wengue V1</t>
-  </si>
-  <si>
     <t>Wenye</t>
+  </si>
+  <si>
+    <t>Blanco</t>
+  </si>
+  <si>
+    <t>2 Fosas 2 Alas, disponible en Toscana, Wengue, Blanco y Negro</t>
+  </si>
+  <si>
+    <t>2 fosas 1 ala, disponible en Toscana, Wengue, Blanco y Negro</t>
+  </si>
+  <si>
+    <t>disponible en Toscana, Wengue, Blanco y Negro</t>
+  </si>
+  <si>
+    <t>Disponible en Toscana, Wengue, Blanco y Marmoleado</t>
   </si>
 </sst>
 </file>
@@ -466,7 +472,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -525,12 +531,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -542,9 +608,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
@@ -554,8 +617,32 @@
     <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -579,16 +666,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>145677</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50427</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:rowOff>6404</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>632803</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1636059</xdr:rowOff>
+      <xdr:rowOff>1608845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -617,8 +704,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6775077" y="6129618"/>
-          <a:ext cx="2173051" cy="1602441"/>
+          <a:off x="5724606" y="6034368"/>
+          <a:ext cx="2405733" cy="1602441"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -629,16 +716,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>978913</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:rowOff>53627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>941294</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1703294</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1637521</xdr:rowOff>
+      <xdr:rowOff>1623913</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -667,8 +754,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11351559" y="6152029"/>
-          <a:ext cx="2431676" cy="1570286"/>
+          <a:off x="8476449" y="6081591"/>
+          <a:ext cx="2642988" cy="1570286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -688,7 +775,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1552575</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>5615</xdr:rowOff>
+      <xdr:rowOff>5614</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -790,7 +877,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>1520097</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -883,16 +970,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1847850</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1635124</xdr:rowOff>
+      <xdr:rowOff>1611992</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -907,7 +994,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -915,14 +1002,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect r="11364"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8362950" y="2509837"/>
-          <a:ext cx="1876425" cy="1563687"/>
+          <a:off x="9324975" y="2462212"/>
+          <a:ext cx="1857375" cy="1569130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -942,7 +1028,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1352549</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1546499</xdr:rowOff>
+      <xdr:rowOff>1546498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1044,7 +1130,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>1419225</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:rowOff>1906</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1828,6 +1914,454 @@
         <a:xfrm>
           <a:off x="6724250" y="20707350"/>
           <a:ext cx="1277525" cy="1533030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1673100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>1581150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3D1272-5388-435E-AE2E-3860A66212FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="-322" t="18270" r="322" b="3225"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5743575" y="46558200"/>
+          <a:ext cx="1587375" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285752</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1573214</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>1583054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F206BC46-C24D-49B1-9BAF-EDBF3357FE8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943602" y="43272075"/>
+          <a:ext cx="1287462" cy="1544954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1495426</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>1543050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A261A40-3BB6-400F-895B-C5BB9562A8AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5915026" y="41671875"/>
+          <a:ext cx="1238250" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1402557</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1609725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C264ECF5-0468-4D83-AE69-5B476D12D927}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867401" y="24507825"/>
+          <a:ext cx="1193006" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1628774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A182382F-E7EB-4AAB-B119-4F4FDE04E9AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696201" y="24504650"/>
+          <a:ext cx="1209674" cy="1612899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1333499</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1598454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagen 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D9F1239-BC26-4962-822E-BB00DEE823F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11293928" y="24424822"/>
+          <a:ext cx="1238250" cy="1612061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1551213</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1581305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagen 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65F314E7-3960-4A3B-8B60-E4968EF52C69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="13528"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7701643" y="26276327"/>
+          <a:ext cx="1347106" cy="1553157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>81641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1510395</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1551214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Imagen 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974B9A0D-5ED9-4D8F-A2E5-D70154AB2C24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7783287" y="31718248"/>
+          <a:ext cx="1224644" cy="1469573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1592034</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1581149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Imagen 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0834F854-2C25-4296-A6AA-9236FA09ED5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7783285" y="22655893"/>
+          <a:ext cx="1306285" cy="1567542"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2162,19 +2696,19 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" customWidth="1"/>
+    <col min="4" max="4" width="36.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="1"/>
+    <col min="12" max="12" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2182,7 +2716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
@@ -2208,7 +2742,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -2237,7 +2771,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10002</v>
       </c>
@@ -2264,7 +2798,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10003</v>
       </c>
@@ -2289,7 +2823,7 @@
       <c r="L5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10004</v>
       </c>
@@ -2313,7 +2847,7 @@
       </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10005</v>
       </c>
@@ -2329,7 +2863,7 @@
       <c r="L7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10006</v>
       </c>
@@ -2345,7 +2879,7 @@
       <c r="L8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10007</v>
       </c>
@@ -2360,7 +2894,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10008</v>
       </c>
@@ -2371,7 +2905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10009</v>
       </c>
@@ -2385,7 +2919,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10010</v>
       </c>
@@ -2397,7 +2931,7 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10011</v>
       </c>
@@ -2415,7 +2949,7 @@
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10012</v>
       </c>
@@ -2432,7 +2966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>2</v>
       </c>
@@ -2443,7 +2977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>20001</v>
       </c>
@@ -2471,7 +3005,7 @@
       <c r="L17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>20002</v>
       </c>
@@ -2498,7 +3032,7 @@
       </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>20003</v>
       </c>
@@ -2521,7 +3055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20004</v>
       </c>
@@ -2544,7 +3078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20005</v>
       </c>
@@ -2570,7 +3104,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20006</v>
       </c>
@@ -2596,7 +3130,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>3</v>
       </c>
@@ -2607,7 +3141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>30001</v>
       </c>
@@ -2627,7 +3161,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>30002</v>
       </c>
@@ -2647,7 +3181,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>30003</v>
       </c>
@@ -2667,7 +3201,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>30004</v>
       </c>
@@ -2681,7 +3215,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>30005</v>
       </c>
@@ -2695,7 +3229,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30006</v>
       </c>
@@ -2709,7 +3243,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30007</v>
       </c>
@@ -2723,7 +3257,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30008</v>
       </c>
@@ -2737,7 +3271,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30009</v>
       </c>
@@ -2751,7 +3285,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30010</v>
       </c>
@@ -2765,7 +3299,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>30011</v>
       </c>
@@ -2776,7 +3310,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>30012</v>
       </c>
@@ -2787,7 +3321,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>30013</v>
       </c>
@@ -2798,7 +3332,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>30014</v>
       </c>
@@ -2809,7 +3343,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>4</v>
       </c>
@@ -2817,7 +3351,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40001</v>
       </c>
@@ -2831,7 +3365,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40002</v>
       </c>
@@ -2845,7 +3379,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40003</v>
       </c>
@@ -2859,7 +3393,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>40004</v>
       </c>
@@ -2873,7 +3407,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>40005</v>
       </c>
@@ -2887,7 +3421,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>40006</v>
       </c>
@@ -2898,7 +3432,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>5</v>
       </c>
@@ -2906,7 +3440,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>50001</v>
       </c>
@@ -2920,7 +3454,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50002</v>
       </c>
@@ -2934,7 +3468,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50003</v>
       </c>
@@ -2945,7 +3479,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50004</v>
       </c>
@@ -2959,7 +3493,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50005</v>
       </c>
@@ -2970,7 +3504,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>50006</v>
       </c>
@@ -2981,7 +3515,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>50007</v>
       </c>
@@ -2992,7 +3526,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>6</v>
       </c>
@@ -3000,7 +3534,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>60001</v>
       </c>
@@ -3014,7 +3548,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>60002</v>
       </c>
@@ -3028,7 +3562,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60003</v>
       </c>
@@ -3042,7 +3576,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60004</v>
       </c>
@@ -3056,7 +3590,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60005</v>
       </c>
@@ -3070,7 +3604,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>60006</v>
       </c>
@@ -3081,7 +3615,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>7</v>
       </c>
@@ -3092,7 +3626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>70001</v>
       </c>
@@ -3118,7 +3652,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>70002</v>
       </c>
@@ -3144,7 +3678,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>70003</v>
       </c>
@@ -3170,7 +3704,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>70004</v>
       </c>
@@ -3196,7 +3730,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>8</v>
       </c>
@@ -3207,7 +3741,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>80001</v>
       </c>
@@ -3233,7 +3767,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>80002</v>
       </c>
@@ -3259,7 +3793,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>80003</v>
       </c>
@@ -3285,7 +3819,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>80004</v>
       </c>
@@ -3311,7 +3845,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>9</v>
       </c>
@@ -3322,7 +3856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>90001</v>
       </c>
@@ -3348,7 +3882,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>90002</v>
       </c>
@@ -3374,7 +3908,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>90003</v>
       </c>
@@ -3400,7 +3934,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>90004</v>
       </c>
@@ -3426,7 +3960,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>10</v>
       </c>
@@ -3437,7 +3971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>100001</v>
       </c>
@@ -3454,7 +3988,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>11</v>
       </c>
@@ -3465,7 +3999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>110001</v>
       </c>
@@ -3479,7 +4013,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>120001</v>
       </c>
@@ -3496,7 +4030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>13</v>
       </c>
@@ -3507,7 +4041,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>130001</v>
       </c>
@@ -3521,7 +4055,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>130002</v>
       </c>
@@ -3532,7 +4066,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>14</v>
       </c>
@@ -3540,7 +4074,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>140001</v>
       </c>
@@ -3554,7 +4088,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>140002</v>
       </c>
@@ -3568,7 +4102,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>140003</v>
       </c>
@@ -3582,7 +4116,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>140004</v>
       </c>
@@ -3593,7 +4127,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>140005</v>
       </c>
@@ -3607,7 +4141,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>140006</v>
       </c>
@@ -3621,7 +4155,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>140007</v>
       </c>
@@ -3635,7 +4169,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>140008</v>
       </c>
@@ -3649,7 +4183,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>140009</v>
       </c>
@@ -3663,7 +4197,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>140010</v>
       </c>
@@ -3677,7 +4211,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>140011</v>
       </c>
@@ -3688,7 +4222,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>140012</v>
       </c>
@@ -3702,7 +4236,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>140013</v>
       </c>
@@ -3716,7 +4250,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B110">
         <v>15</v>
       </c>
@@ -3724,7 +4258,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>150001</v>
       </c>
@@ -3738,7 +4272,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>150002</v>
       </c>
@@ -3756,24 +4290,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106ADB30-1909-4A3E-AA9A-5631D32C008F}">
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" customWidth="1"/>
+    <col min="6" max="6" width="25.25" customWidth="1"/>
+    <col min="7" max="7" width="23.375" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="10" max="11" width="23.25" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3782,7 +4316,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -3794,320 +4328,343 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22">
         <v>10001</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="23">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="24">
         <v>1299</v>
       </c>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="L3" s="29"/>
+    </row>
+    <row r="4" spans="1:12" s="26" customFormat="1" ht="132.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="D4" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:12" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22">
         <v>10002</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="23">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="24">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="28" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="D6" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
+        <v>10003</v>
+      </c>
+      <c r="C7" s="23">
+        <v>3</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:12" s="26" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22">
+        <v>10004</v>
+      </c>
+      <c r="C9" s="23">
+        <v>4</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:12" s="26" customFormat="1" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="D10" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22">
+        <v>10005</v>
+      </c>
+      <c r="C11" s="23">
+        <v>5</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="24">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="26" customFormat="1" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="D12" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22">
+        <v>10006</v>
+      </c>
+      <c r="C13" s="23">
+        <v>6</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="F13" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="24">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="28" customFormat="1" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="D14" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22">
+        <v>10007</v>
+      </c>
+      <c r="C15" s="23">
+        <v>7</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="24">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="26" customFormat="1" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="D16" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
+        <v>10008</v>
+      </c>
+      <c r="C17" s="23">
         <v>8</v>
       </c>
-      <c r="I5" s="5">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="D6" s="11" t="s">
+      <c r="D17" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="1:9" s="26" customFormat="1" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="D18" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22">
+        <v>10009</v>
+      </c>
+      <c r="C19" s="23">
+        <v>9</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="24">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="26" customFormat="1" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="D20" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="22">
+        <v>10010</v>
+      </c>
+      <c r="C21" s="23">
+        <v>10</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>10003</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="1:9" s="26" customFormat="1" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="D22" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" s="27"/>
+    </row>
+    <row r="23" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="22">
+        <v>10011</v>
+      </c>
+      <c r="C23" s="23">
+        <v>11</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F23" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>10004</v>
-      </c>
-      <c r="C9" s="4">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="21" t="s">
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="1:9" s="26" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="D24" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22">
+        <v>10012</v>
+      </c>
+      <c r="C25" s="23">
+        <v>12</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="D10" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10005</v>
-      </c>
-      <c r="C11" s="4">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" s="5">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>10006</v>
-      </c>
-      <c r="C13" s="4">
-        <v>6</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="5">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>10007</v>
-      </c>
-      <c r="C15" s="4">
-        <v>7</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" s="5">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>10008</v>
-      </c>
-      <c r="C17" s="4">
-        <v>8</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" s="8" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>10009</v>
-      </c>
-      <c r="C19" s="4">
-        <v>9</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19" s="5">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="8" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>10010</v>
-      </c>
-      <c r="C21" s="4">
-        <v>10</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" s="26" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="D26" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" s="8" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>10011</v>
-      </c>
-      <c r="C23" s="4">
-        <v>11</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" s="8" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>10012</v>
-      </c>
-      <c r="C25">
-        <v>12</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>2</v>
       </c>
@@ -4119,833 +4676,756 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="22">
         <v>20001</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="23">
         <v>13</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="24">
         <v>999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:9" s="28" customFormat="1" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="D30" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="22">
         <v>20002</v>
       </c>
-      <c r="C30">
+      <c r="C31" s="23">
         <v>14</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="24">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="26" customFormat="1" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="D32" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I32" s="27"/>
+    </row>
+    <row r="33" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="22">
+        <v>20003</v>
+      </c>
+      <c r="C33" s="23">
+        <v>15</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H33" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I33" s="24"/>
+    </row>
+    <row r="34" spans="1:12" s="26" customFormat="1" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="D34" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" s="27"/>
+    </row>
+    <row r="35" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="22">
+        <v>20004</v>
+      </c>
+      <c r="C35" s="23">
+        <v>16</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="24"/>
+    </row>
+    <row r="36" spans="1:12" s="26" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="D36" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="27"/>
+    </row>
+    <row r="37" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="22">
+        <v>20005</v>
+      </c>
+      <c r="C37" s="23">
+        <v>17</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="24">
         <v>799</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>20003</v>
-      </c>
-      <c r="C31">
-        <v>15</v>
-      </c>
-      <c r="D31" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" t="s">
+    <row r="38" spans="1:12" s="26" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="D38" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" s="27"/>
+    </row>
+    <row r="39" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="22">
+        <v>20006</v>
+      </c>
+      <c r="C39" s="23">
+        <v>18</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F39" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G39" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H39" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>20004</v>
-      </c>
-      <c r="C32">
-        <v>16</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="I39" s="24">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="26" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="D40" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I40" s="27"/>
+    </row>
+    <row r="41" spans="1:12" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>30001</v>
+      </c>
+      <c r="C43" s="4">
+        <v>19</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="5">
+        <v>389</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="8" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>30002</v>
+      </c>
+      <c r="C45" s="4">
+        <v>20</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="8" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>30003</v>
+      </c>
+      <c r="C47" s="4">
+        <v>21</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" s="5">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="8" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
+      <c r="I48" s="9"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>30004</v>
+      </c>
+      <c r="C49">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+      <c r="I49" s="1">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>30005</v>
+      </c>
+      <c r="C50">
+        <v>23</v>
+      </c>
+      <c r="D50" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>30006</v>
+      </c>
+      <c r="C51">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>38</v>
+      </c>
+      <c r="I51" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>30007</v>
+      </c>
+      <c r="C52">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>39</v>
+      </c>
+      <c r="I52" s="1">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>30008</v>
+      </c>
+      <c r="C53">
         <v>26</v>
       </c>
-      <c r="E32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="D53" t="s">
+        <v>40</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>30009</v>
+      </c>
+      <c r="C54">
+        <v>27</v>
+      </c>
+      <c r="D54" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>30010</v>
+      </c>
+      <c r="C55">
+        <v>28</v>
+      </c>
+      <c r="D55" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55" s="1">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>30011</v>
+      </c>
+      <c r="C56">
+        <v>29</v>
+      </c>
+      <c r="D56" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>30012</v>
+      </c>
+      <c r="C57">
+        <v>30</v>
+      </c>
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>30013</v>
+      </c>
+      <c r="C58">
+        <v>31</v>
+      </c>
+      <c r="D58" t="s">
+        <v>45</v>
+      </c>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>30014</v>
+      </c>
+      <c r="C59">
+        <v>32</v>
+      </c>
+      <c r="D59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I60" s="17"/>
+    </row>
+    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" s="20" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="20">
+        <v>40001</v>
+      </c>
+      <c r="C62" s="20">
+        <v>33</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I62" s="21">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="20" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="20">
+        <v>40002</v>
+      </c>
+      <c r="C63" s="20">
+        <v>34</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I63" s="21">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="20" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="20">
+        <v>40003</v>
+      </c>
+      <c r="C64" s="20">
+        <v>35</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I64" s="21">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="20" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="20">
+        <v>40004</v>
+      </c>
+      <c r="C65" s="20">
+        <v>36</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I65" s="21">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="20" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="20">
+        <v>40005</v>
+      </c>
+      <c r="C66" s="20">
+        <v>37</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I66" s="21">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="20" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="20">
+        <v>40006</v>
+      </c>
+      <c r="C67" s="20">
+        <v>38</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I67" s="21"/>
+    </row>
+    <row r="68" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I68" s="19"/>
+    </row>
+    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>50001</v>
+      </c>
+      <c r="C70">
+        <v>39</v>
+      </c>
+      <c r="D70" t="s">
+        <v>55</v>
+      </c>
+      <c r="I70" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>50002</v>
+      </c>
+      <c r="C71">
+        <v>40</v>
+      </c>
+      <c r="D71" t="s">
+        <v>56</v>
+      </c>
+      <c r="I71" s="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>50003</v>
+      </c>
+      <c r="C72">
+        <v>41</v>
+      </c>
+      <c r="D72" t="s">
+        <v>57</v>
+      </c>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>50004</v>
+      </c>
+      <c r="C73">
+        <v>42</v>
+      </c>
+      <c r="D73" t="s">
+        <v>58</v>
+      </c>
+      <c r="I73" s="1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>50005</v>
+      </c>
+      <c r="C74">
+        <v>43</v>
+      </c>
+      <c r="D74" t="s">
+        <v>59</v>
+      </c>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>50006</v>
+      </c>
+      <c r="C75">
+        <v>44</v>
+      </c>
+      <c r="D75" t="s">
+        <v>60</v>
+      </c>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>50007</v>
+      </c>
+      <c r="C76">
+        <v>45</v>
+      </c>
+      <c r="D76" t="s">
+        <v>61</v>
+      </c>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B78">
         <v>6</v>
       </c>
-      <c r="G32" t="s">
+      <c r="D78" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>60001</v>
+      </c>
+      <c r="C79">
+        <v>46</v>
+      </c>
+      <c r="D79" t="s">
+        <v>63</v>
+      </c>
+      <c r="I79" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>60002</v>
+      </c>
+      <c r="C80">
+        <v>47</v>
+      </c>
+      <c r="D80" t="s">
+        <v>64</v>
+      </c>
+      <c r="I80" s="1">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>60003</v>
+      </c>
+      <c r="C81">
+        <v>48</v>
+      </c>
+      <c r="D81" t="s">
+        <v>65</v>
+      </c>
+      <c r="I81" s="1">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>60004</v>
+      </c>
+      <c r="C82">
+        <v>49</v>
+      </c>
+      <c r="D82" t="s">
+        <v>66</v>
+      </c>
+      <c r="I82" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>60005</v>
+      </c>
+      <c r="C83">
+        <v>50</v>
+      </c>
+      <c r="D83" t="s">
+        <v>67</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>60006</v>
+      </c>
+      <c r="C84">
+        <v>51</v>
+      </c>
+      <c r="D84" t="s">
+        <v>68</v>
+      </c>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B86">
         <v>7</v>
       </c>
-      <c r="H32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>20005</v>
-      </c>
-      <c r="C33">
-        <v>17</v>
-      </c>
-      <c r="D33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="1">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>20006</v>
-      </c>
-      <c r="C34">
-        <v>18</v>
-      </c>
-      <c r="D34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I34" s="1">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I35" s="16"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>30001</v>
-      </c>
-      <c r="C37" s="4">
-        <v>19</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I37" s="5">
-        <v>389</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="8" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>30002</v>
-      </c>
-      <c r="C39" s="4">
-        <v>20</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I39" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="8" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>30003</v>
-      </c>
-      <c r="C41" s="4">
-        <v>21</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I41" s="5">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="8" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>30004</v>
-      </c>
-      <c r="C43">
-        <v>22</v>
-      </c>
-      <c r="D43" t="s">
-        <v>36</v>
-      </c>
-      <c r="I43" s="1">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>30005</v>
-      </c>
-      <c r="C44">
-        <v>23</v>
-      </c>
-      <c r="D44" t="s">
-        <v>37</v>
-      </c>
-      <c r="I44" s="1">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>30006</v>
-      </c>
-      <c r="C45">
-        <v>24</v>
-      </c>
-      <c r="D45" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="1">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>30007</v>
-      </c>
-      <c r="C46">
-        <v>25</v>
-      </c>
-      <c r="D46" t="s">
-        <v>39</v>
-      </c>
-      <c r="I46" s="1">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>30008</v>
-      </c>
-      <c r="C47">
-        <v>26</v>
-      </c>
-      <c r="D47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I47" s="1">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>30009</v>
-      </c>
-      <c r="C48">
-        <v>27</v>
-      </c>
-      <c r="D48" t="s">
-        <v>41</v>
-      </c>
-      <c r="I48" s="1">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>30010</v>
-      </c>
-      <c r="C49">
-        <v>28</v>
-      </c>
-      <c r="D49" t="s">
-        <v>42</v>
-      </c>
-      <c r="I49" s="1">
-        <v>2750</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>30011</v>
-      </c>
-      <c r="C50">
-        <v>29</v>
-      </c>
-      <c r="D50" t="s">
-        <v>43</v>
-      </c>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>30012</v>
-      </c>
-      <c r="C51">
-        <v>30</v>
-      </c>
-      <c r="D51" t="s">
-        <v>44</v>
-      </c>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>30013</v>
-      </c>
-      <c r="C52">
-        <v>31</v>
-      </c>
-      <c r="D52" t="s">
-        <v>45</v>
-      </c>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>30014</v>
-      </c>
-      <c r="C53">
-        <v>32</v>
-      </c>
-      <c r="D53" t="s">
-        <v>46</v>
-      </c>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I54" s="18"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>4</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>40001</v>
-      </c>
-      <c r="C56">
-        <v>33</v>
-      </c>
-      <c r="D56" t="s">
-        <v>48</v>
-      </c>
-      <c r="I56" s="1">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>40002</v>
-      </c>
-      <c r="C57">
-        <v>34</v>
-      </c>
-      <c r="D57" t="s">
-        <v>49</v>
-      </c>
-      <c r="I57" s="1">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>40003</v>
-      </c>
-      <c r="C58">
-        <v>35</v>
-      </c>
-      <c r="D58" t="s">
-        <v>50</v>
-      </c>
-      <c r="I58" s="1">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>40004</v>
-      </c>
-      <c r="C59">
-        <v>36</v>
-      </c>
-      <c r="D59" t="s">
-        <v>51</v>
-      </c>
-      <c r="I59" s="1">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>40005</v>
-      </c>
-      <c r="C60">
-        <v>37</v>
-      </c>
-      <c r="D60" t="s">
-        <v>52</v>
-      </c>
-      <c r="I60" s="1">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>40006</v>
-      </c>
-      <c r="C61">
-        <v>38</v>
-      </c>
-      <c r="D61" t="s">
-        <v>53</v>
-      </c>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I62" s="20"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>5</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>50001</v>
-      </c>
-      <c r="C64">
-        <v>39</v>
-      </c>
-      <c r="D64" t="s">
-        <v>55</v>
-      </c>
-      <c r="I64" s="1">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>50002</v>
-      </c>
-      <c r="C65">
-        <v>40</v>
-      </c>
-      <c r="D65" t="s">
-        <v>56</v>
-      </c>
-      <c r="I65" s="1">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>50003</v>
-      </c>
-      <c r="C66">
-        <v>41</v>
-      </c>
-      <c r="D66" t="s">
-        <v>57</v>
-      </c>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>50004</v>
-      </c>
-      <c r="C67">
-        <v>42</v>
-      </c>
-      <c r="D67" t="s">
-        <v>58</v>
-      </c>
-      <c r="I67" s="1">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>50005</v>
-      </c>
-      <c r="C68">
-        <v>43</v>
-      </c>
-      <c r="D68" t="s">
-        <v>59</v>
-      </c>
-      <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>50006</v>
-      </c>
-      <c r="C69">
-        <v>44</v>
-      </c>
-      <c r="D69" t="s">
-        <v>60</v>
-      </c>
-      <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>50007</v>
-      </c>
-      <c r="C70">
-        <v>45</v>
-      </c>
-      <c r="D70" t="s">
-        <v>61</v>
-      </c>
-      <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <v>6</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>60001</v>
-      </c>
-      <c r="C73">
-        <v>46</v>
-      </c>
-      <c r="D73" t="s">
-        <v>63</v>
-      </c>
-      <c r="I73" s="1">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>60002</v>
-      </c>
-      <c r="C74">
-        <v>47</v>
-      </c>
-      <c r="D74" t="s">
-        <v>64</v>
-      </c>
-      <c r="I74" s="1">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>60003</v>
-      </c>
-      <c r="C75">
-        <v>48</v>
-      </c>
-      <c r="D75" t="s">
-        <v>65</v>
-      </c>
-      <c r="I75" s="1">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>60004</v>
-      </c>
-      <c r="C76">
-        <v>49</v>
-      </c>
-      <c r="D76" t="s">
-        <v>66</v>
-      </c>
-      <c r="I76" s="1">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>60005</v>
-      </c>
-      <c r="C77">
-        <v>50</v>
-      </c>
-      <c r="D77" t="s">
-        <v>67</v>
-      </c>
-      <c r="I77" s="1">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>60006</v>
-      </c>
-      <c r="C78">
-        <v>51</v>
-      </c>
-      <c r="D78" t="s">
-        <v>68</v>
-      </c>
-      <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B80">
-        <v>7</v>
-      </c>
-      <c r="D80" s="10" t="s">
+      <c r="D86" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="E80" t="s">
-        <v>21</v>
-      </c>
-      <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>70001</v>
-      </c>
-      <c r="C81">
-        <v>52</v>
-      </c>
-      <c r="D81" t="s">
-        <v>70</v>
-      </c>
-      <c r="E81" t="s">
-        <v>23</v>
-      </c>
-      <c r="F81" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" t="s">
-        <v>7</v>
-      </c>
-      <c r="H81" t="s">
-        <v>24</v>
-      </c>
-      <c r="I81" s="1">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>70002</v>
-      </c>
-      <c r="C82">
-        <v>53</v>
-      </c>
-      <c r="D82" t="s">
-        <v>71</v>
-      </c>
-      <c r="E82" t="s">
-        <v>23</v>
-      </c>
-      <c r="F82" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" t="s">
-        <v>7</v>
-      </c>
-      <c r="H82" t="s">
-        <v>24</v>
-      </c>
-      <c r="I82" s="1">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>70003</v>
-      </c>
-      <c r="C83">
-        <v>54</v>
-      </c>
-      <c r="D83" t="s">
-        <v>72</v>
-      </c>
-      <c r="E83" t="s">
-        <v>23</v>
-      </c>
-      <c r="F83" t="s">
-        <v>6</v>
-      </c>
-      <c r="G83" t="s">
-        <v>7</v>
-      </c>
-      <c r="H83" t="s">
-        <v>24</v>
-      </c>
-      <c r="I83" s="1">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>70004</v>
-      </c>
-      <c r="C84">
-        <v>55</v>
-      </c>
-      <c r="D84" t="s">
-        <v>73</v>
-      </c>
-      <c r="E84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F84" t="s">
-        <v>6</v>
-      </c>
-      <c r="G84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H84" t="s">
-        <v>24</v>
-      </c>
-      <c r="I84" s="1">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B86">
-        <v>8</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="E86" t="s">
         <v>21</v>
       </c>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>80001</v>
+        <v>70001</v>
       </c>
       <c r="C87">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D87" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E87" t="s">
         <v>23</v>
@@ -4960,18 +5440,18 @@
         <v>24</v>
       </c>
       <c r="I87" s="1">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>80002</v>
+        <v>70002</v>
       </c>
       <c r="C88">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D88" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E88" t="s">
         <v>23</v>
@@ -4986,18 +5466,18 @@
         <v>24</v>
       </c>
       <c r="I88" s="1">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>80003</v>
+        <v>70003</v>
       </c>
       <c r="C89">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D89" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E89" t="s">
         <v>23</v>
@@ -5012,18 +5492,18 @@
         <v>24</v>
       </c>
       <c r="I89" s="1">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>80004</v>
+        <v>70004</v>
       </c>
       <c r="C90">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D90" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E90" t="s">
         <v>23</v>
@@ -5038,33 +5518,33 @@
         <v>24</v>
       </c>
       <c r="I90" s="1">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B92">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E92" t="s">
         <v>21</v>
       </c>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>90001</v>
+        <v>80001</v>
       </c>
       <c r="C93">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D93" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E93" t="s">
         <v>23</v>
@@ -5079,18 +5559,18 @@
         <v>24</v>
       </c>
       <c r="I93" s="1">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>90002</v>
+        <v>80002</v>
       </c>
       <c r="C94">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D94" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E94" t="s">
         <v>23</v>
@@ -5105,18 +5585,18 @@
         <v>24</v>
       </c>
       <c r="I94" s="1">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>90003</v>
+        <v>80003</v>
       </c>
       <c r="C95">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D95" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E95" t="s">
         <v>23</v>
@@ -5131,18 +5611,18 @@
         <v>24</v>
       </c>
       <c r="I95" s="1">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>90004</v>
+        <v>80004</v>
       </c>
       <c r="C96">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D96" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E96" t="s">
         <v>23</v>
@@ -5157,352 +5637,472 @@
         <v>24</v>
       </c>
       <c r="I96" s="1">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B98">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E98" t="s">
         <v>21</v>
       </c>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>100001</v>
+        <v>90001</v>
       </c>
       <c r="C99">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D99" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="E99" t="s">
+        <v>23</v>
+      </c>
+      <c r="F99" t="s">
+        <v>6</v>
+      </c>
+      <c r="G99" t="s">
+        <v>7</v>
+      </c>
+      <c r="H99" t="s">
+        <v>24</v>
       </c>
       <c r="I99" s="1">
-        <v>255</v>
-      </c>
-      <c r="J99" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B101">
-        <v>11</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>86</v>
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>90002</v>
+      </c>
+      <c r="C100">
+        <v>61</v>
+      </c>
+      <c r="D100" t="s">
+        <v>81</v>
+      </c>
+      <c r="E100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F100" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100" t="s">
+        <v>7</v>
+      </c>
+      <c r="H100" t="s">
+        <v>24</v>
+      </c>
+      <c r="I100" s="1">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>90003</v>
+      </c>
+      <c r="C101">
+        <v>62</v>
+      </c>
+      <c r="D101" t="s">
+        <v>82</v>
       </c>
       <c r="E101" t="s">
-        <v>21</v>
-      </c>
-      <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F101" t="s">
+        <v>6</v>
+      </c>
+      <c r="G101" t="s">
+        <v>7</v>
+      </c>
+      <c r="H101" t="s">
+        <v>24</v>
+      </c>
+      <c r="I101" s="1">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>110001</v>
+        <v>90004</v>
       </c>
       <c r="C102">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D102" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="E102" t="s">
+        <v>23</v>
+      </c>
+      <c r="F102" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102" t="s">
+        <v>7</v>
+      </c>
+      <c r="H102" t="s">
+        <v>24</v>
       </c>
       <c r="I102" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>120001</v>
-      </c>
+    <row r="104" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B104">
-        <v>12</v>
-      </c>
-      <c r="C104">
-        <v>66</v>
-      </c>
-      <c r="D104" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="E104" t="s">
         <v>21</v>
       </c>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B106">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>100001</v>
+      </c>
+      <c r="C105">
+        <v>64</v>
+      </c>
+      <c r="D105" t="s">
+        <v>85</v>
+      </c>
+      <c r="I105" s="1">
+        <v>255</v>
+      </c>
+      <c r="J105" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>11</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E107" t="s">
+        <v>21</v>
+      </c>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>110001</v>
+      </c>
+      <c r="C108">
+        <v>65</v>
+      </c>
+      <c r="D108" t="s">
+        <v>87</v>
+      </c>
+      <c r="I108" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>120001</v>
+      </c>
+      <c r="B110">
+        <v>12</v>
+      </c>
+      <c r="C110">
+        <v>66</v>
+      </c>
+      <c r="D110" t="s">
+        <v>88</v>
+      </c>
+      <c r="E110" t="s">
+        <v>21</v>
+      </c>
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B112">
         <v>13</v>
       </c>
-      <c r="D106" s="10" t="s">
+      <c r="D112" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I112" s="1">
         <v>785</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113">
         <v>130001</v>
       </c>
-      <c r="C107">
+      <c r="C113">
         <v>67</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D113" t="s">
         <v>90</v>
       </c>
-      <c r="I107" s="1">
+      <c r="I113" s="1">
         <v>685</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114">
         <v>130002</v>
       </c>
-      <c r="C108">
+      <c r="C114">
         <v>68</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D114" t="s">
         <v>91</v>
       </c>
-      <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B110">
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B116">
         <v>14</v>
       </c>
-      <c r="D110" s="10" t="s">
+      <c r="D116" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117">
         <v>140001</v>
       </c>
-      <c r="C111">
+      <c r="C117">
         <v>69</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D117" t="s">
         <v>93</v>
-      </c>
-      <c r="I111" s="1">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>140002</v>
-      </c>
-      <c r="C112">
-        <v>70</v>
-      </c>
-      <c r="D112" t="s">
-        <v>94</v>
-      </c>
-      <c r="I112" s="1">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>140003</v>
-      </c>
-      <c r="C113">
-        <v>71</v>
-      </c>
-      <c r="D113" t="s">
-        <v>95</v>
-      </c>
-      <c r="I113" s="1">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>140004</v>
-      </c>
-      <c r="C114">
-        <v>72</v>
-      </c>
-      <c r="D114" t="s">
-        <v>96</v>
-      </c>
-      <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>140005</v>
-      </c>
-      <c r="C115">
-        <v>73</v>
-      </c>
-      <c r="D115" t="s">
-        <v>97</v>
-      </c>
-      <c r="I115" s="1">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>140006</v>
-      </c>
-      <c r="C116">
-        <v>74</v>
-      </c>
-      <c r="D116" t="s">
-        <v>98</v>
-      </c>
-      <c r="I116" s="1">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>140007</v>
-      </c>
-      <c r="C117">
-        <v>75</v>
-      </c>
-      <c r="D117" t="s">
-        <v>99</v>
       </c>
       <c r="I117" s="1">
         <v>1299</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
+        <v>140002</v>
+      </c>
+      <c r="C118">
+        <v>70</v>
+      </c>
+      <c r="D118" t="s">
+        <v>94</v>
+      </c>
+      <c r="I118" s="1">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>140003</v>
+      </c>
+      <c r="C119">
+        <v>71</v>
+      </c>
+      <c r="D119" t="s">
+        <v>95</v>
+      </c>
+      <c r="I119" s="1">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>140004</v>
+      </c>
+      <c r="C120">
+        <v>72</v>
+      </c>
+      <c r="D120" t="s">
+        <v>96</v>
+      </c>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>140005</v>
+      </c>
+      <c r="C121">
+        <v>73</v>
+      </c>
+      <c r="D121" t="s">
+        <v>97</v>
+      </c>
+      <c r="I121" s="1">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>140006</v>
+      </c>
+      <c r="C122">
+        <v>74</v>
+      </c>
+      <c r="D122" t="s">
+        <v>98</v>
+      </c>
+      <c r="I122" s="1">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>140007</v>
+      </c>
+      <c r="C123">
+        <v>75</v>
+      </c>
+      <c r="D123" t="s">
+        <v>99</v>
+      </c>
+      <c r="I123" s="1">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124">
         <v>140008</v>
       </c>
-      <c r="C118">
+      <c r="C124">
         <v>76</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D124" t="s">
         <v>100</v>
       </c>
-      <c r="I118" s="1">
+      <c r="I124" s="1">
         <v>889</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125">
         <v>140009</v>
       </c>
-      <c r="C119">
+      <c r="C125">
         <v>77</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D125" t="s">
         <v>101</v>
       </c>
-      <c r="I119" s="1">
+      <c r="I125" s="1">
         <v>859</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126">
         <v>140010</v>
       </c>
-      <c r="C120">
+      <c r="C126">
         <v>78</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D126" t="s">
         <v>102</v>
       </c>
-      <c r="I120" s="1">
+      <c r="I126" s="1">
         <v>999</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127">
         <v>140011</v>
       </c>
-      <c r="C121">
+      <c r="C127">
         <v>79</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D127" t="s">
         <v>103</v>
       </c>
-      <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128">
         <v>140012</v>
       </c>
-      <c r="C122">
+      <c r="C128">
         <v>80</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D128" t="s">
         <v>108</v>
       </c>
-      <c r="I122" s="1">
+      <c r="I128" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129">
         <v>140013</v>
       </c>
-      <c r="C123">
+      <c r="C129">
         <v>81</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D129" t="s">
         <v>109</v>
       </c>
-      <c r="I123" s="1">
+      <c r="I129" s="1">
         <v>599</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B125">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B131">
         <v>15</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D131" t="s">
         <v>104</v>
       </c>
-      <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132">
         <v>150001</v>
       </c>
-      <c r="C126">
+      <c r="C132">
         <v>82</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D132" t="s">
         <v>105</v>
       </c>
-      <c r="I126" s="1">
+      <c r="I132" s="1">
         <v>699</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="E9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Imagenes paginas web/Productos MIFERRE.xlsx
+++ b/Imagenes paginas web/Productos MIFERRE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC RYZEN 5\OneDrive\Escritorio\Trabajo\Imagenes paginas web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crisp\Desktop\Trabajo\Imagenes paginas web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CFC9E3-9F0A-49ED-949F-AF793E089515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920DCC0E-094E-43A6-8018-DE80731506A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{2471D800-5301-4056-9942-9B68FF7895A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{2471D800-5301-4056-9942-9B68FF7895A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="125">
   <si>
     <t xml:space="preserve">CAT </t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>Disponible en Toscana, Wengue, Blanco y Marmoleado</t>
+  </si>
+  <si>
+    <t>Disponible en ala Izquierda y Derecha</t>
   </si>
 </sst>
 </file>
@@ -472,22 +475,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -509,26 +501,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -591,22 +563,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -623,27 +602,44 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -877,7 +873,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>1520097</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:rowOff>5042</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1926,13 +1922,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1673100</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>1581150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1975,13 +1971,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>285752</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1573214</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>1583054</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2025,13 +2021,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1495426</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>1543050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2131,8 +2127,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1428750</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>1628774</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>3921</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2362,6 +2358,255 @@
         <a:xfrm>
           <a:off x="7783285" y="22655893"/>
           <a:ext cx="1306285" cy="1567542"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>24278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1916205</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1611777</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Imagen 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5745947D-D93B-4E96-BA6A-09EB017A1357}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7496735" y="36566660"/>
+          <a:ext cx="1904999" cy="1587499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22414</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1781735</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1522129</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Imagen 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7CF620-908E-42BA-8E46-FCA6817423BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5692590" y="38402557"/>
+          <a:ext cx="1759321" cy="1466101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>39730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1781175</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1533526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Imagen 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED2D2A1-EE44-44F5-82F7-FD3F4EF66448}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="5121" r="3126" b="5276"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5695950" y="40254280"/>
+          <a:ext cx="1743075" cy="1493796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>174172</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>29936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>1600457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Imagen 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B5771BE-D8F5-443B-88DA-6C5F15F27085}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5832022" y="43844936"/>
+          <a:ext cx="1568903" cy="1570521"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>40819</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>53075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>1532246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Imagen 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67829A6-9FB6-4B3E-8A58-AFAAA74CB489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5714998" y="45555361"/>
+          <a:ext cx="1782538" cy="1479171"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4290,10 +4535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106ADB30-1909-4A3E-AA9A-5631D32C008F}">
-  <dimension ref="A1:L132"/>
+  <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4320,7 +4565,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
@@ -4328,347 +4573,347 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22">
+    <row r="3" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
         <v>10001</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="19">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="20">
         <v>1299</v>
       </c>
-      <c r="L3" s="29"/>
-    </row>
-    <row r="4" spans="1:12" s="26" customFormat="1" ht="132.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="D4" s="30" t="s">
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="1:12" s="22" customFormat="1" ht="132.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="D4" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" spans="1:12" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="1:12" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
         <v>10002</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="19">
         <v>2</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="20">
         <v>2048</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="28" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="D6" s="32" t="s">
+    <row r="6" spans="1:12" s="24" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="D6" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22">
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
         <v>10003</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="19">
         <v>3</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="1:12" s="26" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" s="22" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
         <v>10004</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="19">
         <v>4</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="I9" s="24"/>
-    </row>
-    <row r="10" spans="1:12" s="26" customFormat="1" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="D10" s="30" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" s="22" customFormat="1" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="D10" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22">
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
         <v>10005</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="19">
         <v>5</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="20">
         <v>399</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="26" customFormat="1" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="D12" s="30" t="s">
+    <row r="12" spans="1:12" s="22" customFormat="1" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="D12" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22">
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
         <v>10006</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="19">
         <v>6</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="20">
         <v>599</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="28" customFormat="1" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="D14" s="32" t="s">
+    <row r="14" spans="1:12" s="24" customFormat="1" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="D14" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22">
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
         <v>10007</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="19">
         <v>7</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="20">
         <v>999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="26" customFormat="1" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="D16" s="30" t="s">
+    <row r="16" spans="1:12" s="22" customFormat="1" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="D16" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="27"/>
-    </row>
-    <row r="17" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22">
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
         <v>10008</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="19">
         <v>8</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="24"/>
-    </row>
-    <row r="18" spans="1:9" s="26" customFormat="1" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="D18" s="30" t="s">
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" s="22" customFormat="1" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="D18" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="I18" s="27"/>
-    </row>
-    <row r="19" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22">
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18">
         <v>10009</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="19">
         <v>9</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="20">
         <v>799</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="26" customFormat="1" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="D20" s="30" t="s">
+    <row r="20" spans="1:9" s="22" customFormat="1" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="D20" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="I20" s="27"/>
-    </row>
-    <row r="21" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22">
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18">
         <v>10010</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="19">
         <v>10</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="I21" s="24"/>
-    </row>
-    <row r="22" spans="1:9" s="26" customFormat="1" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="D22" s="30" t="s">
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" s="22" customFormat="1" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="D22" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="I22" s="27"/>
-    </row>
-    <row r="23" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22">
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18">
         <v>10011</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="19">
         <v>11</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="24"/>
-    </row>
-    <row r="24" spans="1:9" s="26" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="D24" s="34" t="s">
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="1:9" s="22" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="D24" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="I24" s="27"/>
-    </row>
-    <row r="25" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22">
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18">
         <v>10012</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="19">
         <v>12</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="24"/>
-    </row>
-    <row r="26" spans="1:9" s="26" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="D26" s="34" t="s">
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" spans="1:9" s="22" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="D26" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="I26" s="27"/>
-    </row>
-    <row r="27" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I27" s="12"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" s="7" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E28" t="s">
@@ -4676,994 +4921,837 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="22">
+    <row r="29" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="18">
         <v>20001</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="19">
         <v>13</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="20">
         <v>999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="28" customFormat="1" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="D30" s="32" t="s">
+    <row r="30" spans="1:9" s="24" customFormat="1" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="D30" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="22">
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18">
         <v>20002</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="19">
         <v>14</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="20">
         <v>799</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="26" customFormat="1" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="D32" s="30" t="s">
+    <row r="32" spans="1:9" s="22" customFormat="1" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="D32" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="I32" s="27"/>
-    </row>
-    <row r="33" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="22">
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18">
         <v>20003</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="19">
         <v>15</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I33" s="24"/>
-    </row>
-    <row r="34" spans="1:12" s="26" customFormat="1" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="D34" s="30" t="s">
+      <c r="I33" s="20"/>
+    </row>
+    <row r="34" spans="1:12" s="22" customFormat="1" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="D34" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="I34" s="27"/>
-    </row>
-    <row r="35" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="22">
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="18">
         <v>20004</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="19">
         <v>16</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H35" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I35" s="24"/>
-    </row>
-    <row r="36" spans="1:12" s="26" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="D36" s="30" t="s">
+      <c r="I35" s="20"/>
+    </row>
+    <row r="36" spans="1:12" s="22" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="D36" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="I36" s="27"/>
-    </row>
-    <row r="37" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="22">
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="18">
         <v>20005</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="19">
         <v>17</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H37" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I37" s="20">
         <v>799</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="26" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="D38" s="30" t="s">
+    <row r="38" spans="1:12" s="22" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="D38" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="I38" s="27"/>
-    </row>
-    <row r="39" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="22">
+      <c r="I38" s="23"/>
+    </row>
+    <row r="39" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="18">
         <v>20006</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="19">
         <v>18</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="23" t="s">
+      <c r="G39" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="23" t="s">
+      <c r="H39" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="20">
         <v>549</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="26" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="D40" s="30" t="s">
+    <row r="40" spans="1:12" s="22" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="D40" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="I40" s="27"/>
-    </row>
-    <row r="41" spans="1:12" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I41" s="15"/>
-    </row>
-    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42">
+      <c r="I40" s="23"/>
+    </row>
+    <row r="41" spans="1:12" s="10" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="19">
         <v>3</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="I42" s="20"/>
+    </row>
+    <row r="43" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="37">
         <v>30001</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>19</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="4">
         <v>389</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="J43" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="8" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+    <row r="44" spans="1:12" s="22" customFormat="1" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="D44" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="18">
         <v>30002</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="19">
         <v>20</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="20">
         <v>450</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="8" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="I46" s="9"/>
-    </row>
-    <row r="47" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+    <row r="46" spans="1:12" s="22" customFormat="1" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="D46" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="I46" s="23"/>
+    </row>
+    <row r="47" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="18">
         <v>30003</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="19">
         <v>21</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="20">
         <v>699</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="8" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49">
+    <row r="48" spans="1:12" s="22" customFormat="1" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+      <c r="D48" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="18">
         <v>30004</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="19">
         <v>22</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="20">
         <v>595</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="50" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="31"/>
+      <c r="I50" s="32"/>
+    </row>
+    <row r="51" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="27">
         <v>30005</v>
       </c>
-      <c r="C50">
+      <c r="C51" s="24">
         <v>23</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I51" s="9">
         <v>999</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row r="52" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="31"/>
+      <c r="I52" s="32"/>
+    </row>
+    <row r="53" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="18">
         <v>30006</v>
       </c>
-      <c r="C51">
+      <c r="C53" s="19">
         <v>24</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D53" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I53" s="20">
         <v>389</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="54" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="31"/>
+      <c r="I54" s="32"/>
+    </row>
+    <row r="55" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="18">
         <v>30007</v>
       </c>
-      <c r="C52">
+      <c r="C55" s="19">
         <v>25</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D55" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I55" s="20">
         <v>565</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53">
+    <row r="56" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="31"/>
+      <c r="I56" s="32"/>
+    </row>
+    <row r="57" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="18">
         <v>30008</v>
       </c>
-      <c r="C53">
+      <c r="C57" s="19">
         <v>26</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D57" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I57" s="20">
         <v>1750</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54">
+    <row r="58" spans="1:9" s="34" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="33"/>
+      <c r="D58" s="29"/>
+      <c r="I58" s="35"/>
+    </row>
+    <row r="59" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="18">
         <v>30009</v>
       </c>
-      <c r="C54">
+      <c r="C59" s="19">
         <v>27</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D59" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I59" s="20">
         <v>1950</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55">
+    <row r="60" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="31"/>
+      <c r="I60" s="32"/>
+    </row>
+    <row r="61" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="18">
         <v>30010</v>
       </c>
-      <c r="C55">
+      <c r="C61" s="19">
         <v>28</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D61" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I61" s="20">
         <v>2750</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56">
+    <row r="62" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="31"/>
+      <c r="I62" s="32"/>
+    </row>
+    <row r="63" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="18">
         <v>30011</v>
       </c>
-      <c r="C56">
+      <c r="C63" s="19">
         <v>29</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D63" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="I63" s="20"/>
+    </row>
+    <row r="64" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="31"/>
+      <c r="I64" s="32"/>
+    </row>
+    <row r="65" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="18">
         <v>30012</v>
       </c>
-      <c r="C57">
+      <c r="C65" s="19">
         <v>30</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D65" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="I65" s="20"/>
+    </row>
+    <row r="66" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="31"/>
+      <c r="I66" s="32"/>
+    </row>
+    <row r="67" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="18">
         <v>30013</v>
       </c>
-      <c r="C58">
+      <c r="C67" s="19">
         <v>31</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D67" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="I67" s="20"/>
+    </row>
+    <row r="68" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="31"/>
+      <c r="I68" s="32"/>
+    </row>
+    <row r="69" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="18">
         <v>30014</v>
       </c>
-      <c r="C59">
+      <c r="C69" s="19">
         <v>32</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D69" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I60" s="17"/>
-    </row>
-    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61">
+      <c r="I69" s="20"/>
+    </row>
+    <row r="70" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="31"/>
+      <c r="I70" s="32"/>
+    </row>
+    <row r="71" spans="1:9" s="12" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I71" s="13"/>
+    </row>
+    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B72">
         <v>4</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D72" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" s="20" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="20">
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="16">
         <v>40001</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C73" s="16">
         <v>33</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D73" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I62" s="21">
+      <c r="I73" s="17">
         <v>599</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="20" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="20">
+    <row r="74" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="16">
         <v>40002</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C74" s="16">
         <v>34</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D74" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I63" s="21">
+      <c r="I74" s="17">
         <v>445</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="20" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="20">
+    <row r="75" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="16">
         <v>40003</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C75" s="16">
         <v>35</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D75" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I64" s="21">
+      <c r="I75" s="17">
         <v>599</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="20" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="20">
+    <row r="76" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="16">
         <v>40004</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C76" s="16">
         <v>36</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D76" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I65" s="21">
+      <c r="I76" s="17">
         <v>849</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="20" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="20">
+    <row r="77" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="16">
         <v>40005</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C77" s="16">
         <v>37</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D77" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I66" s="21">
+      <c r="I77" s="17">
         <v>799</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="20" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="20">
+    <row r="78" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="16">
         <v>40006</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C78" s="16">
         <v>38</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D78" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I67" s="21"/>
-    </row>
-    <row r="68" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I68" s="19"/>
-    </row>
-    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B69">
+      <c r="I78" s="17"/>
+    </row>
+    <row r="79" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I79" s="15"/>
+    </row>
+    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B80">
         <v>5</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D80" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="16">
         <v>50001</v>
       </c>
-      <c r="C70">
+      <c r="C81" s="16">
         <v>39</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D81" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I81" s="17">
         <v>229</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71">
+    <row r="82" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="16">
         <v>50002</v>
       </c>
-      <c r="C71">
+      <c r="C82" s="16">
         <v>40</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D82" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I82" s="17">
         <v>249</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72">
+    <row r="83" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="16">
         <v>50003</v>
       </c>
-      <c r="C72">
+      <c r="C83" s="16">
         <v>41</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D83" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="I83" s="17"/>
+    </row>
+    <row r="84" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="16">
         <v>50004</v>
       </c>
-      <c r="C73">
+      <c r="C84" s="16">
         <v>42</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D84" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I84" s="17">
         <v>374</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74">
+    <row r="85" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="16">
         <v>50005</v>
       </c>
-      <c r="C74">
+      <c r="C85" s="16">
         <v>43</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D85" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="I85" s="17"/>
+    </row>
+    <row r="86" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="16">
         <v>50006</v>
       </c>
-      <c r="C75">
+      <c r="C86" s="16">
         <v>44</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D86" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="I86" s="17"/>
+    </row>
+    <row r="87" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="16">
         <v>50007</v>
       </c>
-      <c r="C76">
+      <c r="C87" s="16">
         <v>45</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D87" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B78">
+      <c r="I87" s="17"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B89">
         <v>6</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D89" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="16">
         <v>60001</v>
       </c>
-      <c r="C79">
+      <c r="C90" s="16">
         <v>46</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D90" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I90" s="17">
         <v>999</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80">
+    <row r="91" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="16">
         <v>60002</v>
       </c>
-      <c r="C80">
+      <c r="C91" s="16">
         <v>47</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D91" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I91" s="17">
         <v>845</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81">
+    <row r="92" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="16">
         <v>60003</v>
       </c>
-      <c r="C81">
+      <c r="C92" s="16">
         <v>48</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D92" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="I81" s="1">
+      <c r="I92" s="17">
         <v>1275</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82">
+    <row r="93" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="16">
         <v>60004</v>
       </c>
-      <c r="C82">
+      <c r="C93" s="16">
         <v>49</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D93" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="I82" s="1">
+      <c r="I93" s="17">
         <v>999</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83">
+    <row r="94" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="16">
         <v>60005</v>
       </c>
-      <c r="C83">
+      <c r="C94" s="16">
         <v>50</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D94" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="I83" s="1">
+      <c r="I94" s="17">
         <v>1349</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84">
+    <row r="95" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="16">
         <v>60006</v>
       </c>
-      <c r="C84">
+      <c r="C95" s="16">
         <v>51</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D95" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B86">
+      <c r="I95" s="17"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B97">
         <v>7</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D97" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E97" t="s">
         <v>21</v>
       </c>
-      <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98">
         <v>70001</v>
       </c>
-      <c r="C87">
+      <c r="C98">
         <v>52</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D98" t="s">
         <v>70</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E98" t="s">
         <v>23</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F98" t="s">
         <v>6</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G98" t="s">
         <v>7</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H98" t="s">
         <v>24</v>
       </c>
-      <c r="I87" s="1">
+      <c r="I98" s="1">
         <v>1449</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>70002</v>
       </c>
-      <c r="C88">
+      <c r="C99">
         <v>53</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D99" t="s">
         <v>71</v>
-      </c>
-      <c r="E88" t="s">
-        <v>23</v>
-      </c>
-      <c r="F88" t="s">
-        <v>6</v>
-      </c>
-      <c r="G88" t="s">
-        <v>7</v>
-      </c>
-      <c r="H88" t="s">
-        <v>24</v>
-      </c>
-      <c r="I88" s="1">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>70003</v>
-      </c>
-      <c r="C89">
-        <v>54</v>
-      </c>
-      <c r="D89" t="s">
-        <v>72</v>
-      </c>
-      <c r="E89" t="s">
-        <v>23</v>
-      </c>
-      <c r="F89" t="s">
-        <v>6</v>
-      </c>
-      <c r="G89" t="s">
-        <v>7</v>
-      </c>
-      <c r="H89" t="s">
-        <v>24</v>
-      </c>
-      <c r="I89" s="1">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>70004</v>
-      </c>
-      <c r="C90">
-        <v>55</v>
-      </c>
-      <c r="D90" t="s">
-        <v>73</v>
-      </c>
-      <c r="E90" t="s">
-        <v>23</v>
-      </c>
-      <c r="F90" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" t="s">
-        <v>7</v>
-      </c>
-      <c r="H90" t="s">
-        <v>24</v>
-      </c>
-      <c r="I90" s="1">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B92">
-        <v>8</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E92" t="s">
-        <v>21</v>
-      </c>
-      <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>80001</v>
-      </c>
-      <c r="C93">
-        <v>56</v>
-      </c>
-      <c r="D93" t="s">
-        <v>75</v>
-      </c>
-      <c r="E93" t="s">
-        <v>23</v>
-      </c>
-      <c r="F93" t="s">
-        <v>6</v>
-      </c>
-      <c r="G93" t="s">
-        <v>7</v>
-      </c>
-      <c r="H93" t="s">
-        <v>24</v>
-      </c>
-      <c r="I93" s="1">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>80002</v>
-      </c>
-      <c r="C94">
-        <v>57</v>
-      </c>
-      <c r="D94" t="s">
-        <v>76</v>
-      </c>
-      <c r="E94" t="s">
-        <v>23</v>
-      </c>
-      <c r="F94" t="s">
-        <v>6</v>
-      </c>
-      <c r="G94" t="s">
-        <v>7</v>
-      </c>
-      <c r="H94" t="s">
-        <v>24</v>
-      </c>
-      <c r="I94" s="1">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>80003</v>
-      </c>
-      <c r="C95">
-        <v>58</v>
-      </c>
-      <c r="D95" t="s">
-        <v>77</v>
-      </c>
-      <c r="E95" t="s">
-        <v>23</v>
-      </c>
-      <c r="F95" t="s">
-        <v>6</v>
-      </c>
-      <c r="G95" t="s">
-        <v>7</v>
-      </c>
-      <c r="H95" t="s">
-        <v>24</v>
-      </c>
-      <c r="I95" s="1">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>80004</v>
-      </c>
-      <c r="C96">
-        <v>59</v>
-      </c>
-      <c r="D96" t="s">
-        <v>78</v>
-      </c>
-      <c r="E96" t="s">
-        <v>23</v>
-      </c>
-      <c r="F96" t="s">
-        <v>6</v>
-      </c>
-      <c r="G96" t="s">
-        <v>7</v>
-      </c>
-      <c r="H96" t="s">
-        <v>24</v>
-      </c>
-      <c r="I96" s="1">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B98">
-        <v>9</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E98" t="s">
-        <v>21</v>
-      </c>
-      <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>90001</v>
-      </c>
-      <c r="C99">
-        <v>60</v>
-      </c>
-      <c r="D99" t="s">
-        <v>80</v>
       </c>
       <c r="E99" t="s">
         <v>23</v>
@@ -5678,18 +5766,18 @@
         <v>24</v>
       </c>
       <c r="I99" s="1">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>90002</v>
+        <v>70003</v>
       </c>
       <c r="C100">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D100" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E100" t="s">
         <v>23</v>
@@ -5704,18 +5792,18 @@
         <v>24</v>
       </c>
       <c r="I100" s="1">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>90003</v>
+        <v>70004</v>
       </c>
       <c r="C101">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D101" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E101" t="s">
         <v>23</v>
@@ -5730,370 +5818,582 @@
         <v>24</v>
       </c>
       <c r="I101" s="1">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>8</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E103" t="s">
+        <v>21</v>
+      </c>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>80001</v>
+      </c>
+      <c r="C104">
+        <v>56</v>
+      </c>
+      <c r="D104" t="s">
+        <v>75</v>
+      </c>
+      <c r="E104" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" t="s">
+        <v>6</v>
+      </c>
+      <c r="G104" t="s">
+        <v>7</v>
+      </c>
+      <c r="H104" t="s">
+        <v>24</v>
+      </c>
+      <c r="I104" s="1">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>80002</v>
+      </c>
+      <c r="C105">
+        <v>57</v>
+      </c>
+      <c r="D105" t="s">
+        <v>76</v>
+      </c>
+      <c r="E105" t="s">
+        <v>23</v>
+      </c>
+      <c r="F105" t="s">
+        <v>6</v>
+      </c>
+      <c r="G105" t="s">
+        <v>7</v>
+      </c>
+      <c r="H105" t="s">
+        <v>24</v>
+      </c>
+      <c r="I105" s="1">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>80003</v>
+      </c>
+      <c r="C106">
+        <v>58</v>
+      </c>
+      <c r="D106" t="s">
+        <v>77</v>
+      </c>
+      <c r="E106" t="s">
+        <v>23</v>
+      </c>
+      <c r="F106" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" t="s">
+        <v>7</v>
+      </c>
+      <c r="H106" t="s">
+        <v>24</v>
+      </c>
+      <c r="I106" s="1">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>80004</v>
+      </c>
+      <c r="C107">
+        <v>59</v>
+      </c>
+      <c r="D107" t="s">
+        <v>78</v>
+      </c>
+      <c r="E107" t="s">
+        <v>23</v>
+      </c>
+      <c r="F107" t="s">
+        <v>6</v>
+      </c>
+      <c r="G107" t="s">
+        <v>7</v>
+      </c>
+      <c r="H107" t="s">
+        <v>24</v>
+      </c>
+      <c r="I107" s="1">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>9</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E109" t="s">
+        <v>21</v>
+      </c>
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>90001</v>
+      </c>
+      <c r="C110">
+        <v>60</v>
+      </c>
+      <c r="D110" t="s">
+        <v>80</v>
+      </c>
+      <c r="E110" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110" t="s">
+        <v>6</v>
+      </c>
+      <c r="G110" t="s">
+        <v>7</v>
+      </c>
+      <c r="H110" t="s">
+        <v>24</v>
+      </c>
+      <c r="I110" s="1">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>90002</v>
+      </c>
+      <c r="C111">
+        <v>61</v>
+      </c>
+      <c r="D111" t="s">
+        <v>81</v>
+      </c>
+      <c r="E111" t="s">
+        <v>23</v>
+      </c>
+      <c r="F111" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" t="s">
+        <v>7</v>
+      </c>
+      <c r="H111" t="s">
+        <v>24</v>
+      </c>
+      <c r="I111" s="1">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>90003</v>
+      </c>
+      <c r="C112">
+        <v>62</v>
+      </c>
+      <c r="D112" t="s">
+        <v>82</v>
+      </c>
+      <c r="E112" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112" t="s">
+        <v>7</v>
+      </c>
+      <c r="H112" t="s">
+        <v>24</v>
+      </c>
+      <c r="I112" s="1">
         <v>1699</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113">
         <v>90004</v>
       </c>
-      <c r="C102">
+      <c r="C113">
         <v>63</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D113" t="s">
         <v>83</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E113" t="s">
         <v>23</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F113" t="s">
         <v>6</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G113" t="s">
         <v>7</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H113" t="s">
         <v>24</v>
       </c>
-      <c r="I102" s="1">
+      <c r="I113" s="1">
         <v>1459</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B104">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B115">
         <v>10</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D115" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E115" t="s">
         <v>21</v>
       </c>
-      <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105">
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116">
         <v>100001</v>
       </c>
-      <c r="C105">
+      <c r="C116">
         <v>64</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D116" t="s">
         <v>85</v>
       </c>
-      <c r="I105" s="1">
+      <c r="I116" s="1">
         <v>255</v>
       </c>
-      <c r="J105" t="s">
+      <c r="J116" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B107">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B118">
         <v>11</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="D118" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E118" t="s">
         <v>21</v>
       </c>
-      <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108">
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119">
         <v>110001</v>
       </c>
-      <c r="C108">
+      <c r="C119">
         <v>65</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D119" t="s">
         <v>87</v>
       </c>
-      <c r="I108" s="1">
+      <c r="I119" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121">
         <v>120001</v>
       </c>
-      <c r="B110">
+      <c r="B121">
         <v>12</v>
       </c>
-      <c r="C110">
+      <c r="C121">
         <v>66</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D121" t="s">
         <v>88</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E121" t="s">
         <v>21</v>
       </c>
-      <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B112">
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B123">
         <v>13</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D123" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I112" s="1">
+      <c r="I123" s="1">
         <v>785</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124">
         <v>130001</v>
       </c>
-      <c r="C113">
+      <c r="C124">
         <v>67</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D124" t="s">
         <v>90</v>
       </c>
-      <c r="I113" s="1">
+      <c r="I124" s="1">
         <v>685</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125">
         <v>130002</v>
       </c>
-      <c r="C114">
+      <c r="C125">
         <v>68</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D125" t="s">
         <v>91</v>
       </c>
-      <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B116">
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B127">
         <v>14</v>
       </c>
-      <c r="D116" s="10" t="s">
+      <c r="D127" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117">
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128">
         <v>140001</v>
       </c>
-      <c r="C117">
+      <c r="C128">
         <v>69</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D128" t="s">
         <v>93</v>
       </c>
-      <c r="I117" s="1">
+      <c r="I128" s="1">
         <v>1299</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>140002</v>
-      </c>
-      <c r="C118">
-        <v>70</v>
-      </c>
-      <c r="D118" t="s">
-        <v>94</v>
-      </c>
-      <c r="I118" s="1">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>140003</v>
-      </c>
-      <c r="C119">
-        <v>71</v>
-      </c>
-      <c r="D119" t="s">
-        <v>95</v>
-      </c>
-      <c r="I119" s="1">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>140004</v>
-      </c>
-      <c r="C120">
-        <v>72</v>
-      </c>
-      <c r="D120" t="s">
-        <v>96</v>
-      </c>
-      <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>140005</v>
-      </c>
-      <c r="C121">
-        <v>73</v>
-      </c>
-      <c r="D121" t="s">
-        <v>97</v>
-      </c>
-      <c r="I121" s="1">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>140006</v>
-      </c>
-      <c r="C122">
-        <v>74</v>
-      </c>
-      <c r="D122" t="s">
-        <v>98</v>
-      </c>
-      <c r="I122" s="1">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>140007</v>
-      </c>
-      <c r="C123">
-        <v>75</v>
-      </c>
-      <c r="D123" t="s">
-        <v>99</v>
-      </c>
-      <c r="I123" s="1">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>140008</v>
-      </c>
-      <c r="C124">
-        <v>76</v>
-      </c>
-      <c r="D124" t="s">
-        <v>100</v>
-      </c>
-      <c r="I124" s="1">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>140009</v>
-      </c>
-      <c r="C125">
-        <v>77</v>
-      </c>
-      <c r="D125" t="s">
-        <v>101</v>
-      </c>
-      <c r="I125" s="1">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>140010</v>
-      </c>
-      <c r="C126">
-        <v>78</v>
-      </c>
-      <c r="D126" t="s">
-        <v>102</v>
-      </c>
-      <c r="I126" s="1">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>140011</v>
-      </c>
-      <c r="C127">
-        <v>79</v>
-      </c>
-      <c r="D127" t="s">
-        <v>103</v>
-      </c>
-      <c r="I127" s="1"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>140012</v>
-      </c>
-      <c r="C128">
-        <v>80</v>
-      </c>
-      <c r="D128" t="s">
-        <v>108</v>
-      </c>
-      <c r="I128" s="1">
-        <v>250</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>140013</v>
+        <v>140002</v>
       </c>
       <c r="C129">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D129" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="I129" s="1">
-        <v>599</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I130" s="1"/>
+      <c r="A130">
+        <v>140003</v>
+      </c>
+      <c r="C130">
+        <v>71</v>
+      </c>
+      <c r="D130" t="s">
+        <v>95</v>
+      </c>
+      <c r="I130" s="1">
+        <v>1289</v>
+      </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B131">
-        <v>15</v>
+      <c r="A131">
+        <v>140004</v>
+      </c>
+      <c r="C131">
+        <v>72</v>
       </c>
       <c r="D131" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I131" s="1"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
+        <v>140005</v>
+      </c>
+      <c r="C132">
+        <v>73</v>
+      </c>
+      <c r="D132" t="s">
+        <v>97</v>
+      </c>
+      <c r="I132" s="1">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>140006</v>
+      </c>
+      <c r="C133">
+        <v>74</v>
+      </c>
+      <c r="D133" t="s">
+        <v>98</v>
+      </c>
+      <c r="I133" s="1">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>140007</v>
+      </c>
+      <c r="C134">
+        <v>75</v>
+      </c>
+      <c r="D134" t="s">
+        <v>99</v>
+      </c>
+      <c r="I134" s="1">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>140008</v>
+      </c>
+      <c r="C135">
+        <v>76</v>
+      </c>
+      <c r="D135" t="s">
+        <v>100</v>
+      </c>
+      <c r="I135" s="1">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>140009</v>
+      </c>
+      <c r="C136">
+        <v>77</v>
+      </c>
+      <c r="D136" t="s">
+        <v>101</v>
+      </c>
+      <c r="I136" s="1">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>140010</v>
+      </c>
+      <c r="C137">
+        <v>78</v>
+      </c>
+      <c r="D137" t="s">
+        <v>102</v>
+      </c>
+      <c r="I137" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>140011</v>
+      </c>
+      <c r="C138">
+        <v>79</v>
+      </c>
+      <c r="D138" t="s">
+        <v>103</v>
+      </c>
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>140012</v>
+      </c>
+      <c r="C139">
+        <v>80</v>
+      </c>
+      <c r="D139" t="s">
+        <v>108</v>
+      </c>
+      <c r="I139" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>140013</v>
+      </c>
+      <c r="C140">
+        <v>81</v>
+      </c>
+      <c r="D140" t="s">
+        <v>109</v>
+      </c>
+      <c r="I140" s="1">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B142">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
+        <v>104</v>
+      </c>
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143">
         <v>150001</v>
       </c>
-      <c r="C132">
+      <c r="C143">
         <v>82</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D143" t="s">
         <v>105</v>
       </c>
-      <c r="I132" s="1">
+      <c r="I143" s="1">
         <v>699</v>
       </c>
     </row>

--- a/Imagenes paginas web/Productos MIFERRE.xlsx
+++ b/Imagenes paginas web/Productos MIFERRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crisp\Desktop\Trabajo\Imagenes paginas web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920DCC0E-094E-43A6-8018-DE80731506A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEB9849-7A83-4950-B115-14BCE37FDFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{2471D800-5301-4056-9942-9B68FF7895A4}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="134">
   <si>
     <t xml:space="preserve">CAT </t>
   </si>
@@ -404,6 +404,33 @@
   </si>
   <si>
     <t>Disponible en ala Izquierda y Derecha</t>
+  </si>
+  <si>
+    <t>1.82 mts largo - 91 cm ancho - 39 cm alto</t>
+  </si>
+  <si>
+    <t>Ambar con Faldon 1.5 mts largo - 75 cm ancho - 36 cm alto</t>
+  </si>
+  <si>
+    <t>1.81 mts de largo - 90.5 cm ancho - 48 cm alto</t>
+  </si>
+  <si>
+    <t>Tennese 1.53mts de largo - 81.5 cm de ancho - 48 cm alto</t>
+  </si>
+  <si>
+    <t>1.42 mts largo - 81.5cm ancho - 47 cm alto</t>
+  </si>
+  <si>
+    <t>Gea 1.50 mts largo - 70.5 cm ancho - 42 cm alto</t>
+  </si>
+  <si>
+    <t>Rondo 1.31 mts largo - 92 cm ancho - 47 cm alto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.70 mts largo - 80cm ancho - 45 cm alto</t>
+  </si>
+  <si>
+    <t>1.80mts de largo - 89.5 cm ancho - 45 cm alto</t>
   </si>
 </sst>
 </file>
@@ -413,7 +440,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,7 +464,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,8 +501,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -574,12 +607,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -640,6 +697,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1167,16 +1241,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3129644</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>136526</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
+      <xdr:colOff>14968</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1485900</xdr:rowOff>
+      <xdr:rowOff>1485899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1205,8 +1279,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5038725" y="9909176"/>
-          <a:ext cx="1619249" cy="1349374"/>
+          <a:off x="5660573" y="9824811"/>
+          <a:ext cx="1851931" cy="1349374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1471,56 +1545,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>141287</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1419224</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1550669</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A6E158-E312-DDF4-E1CA-0160CF476470}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6770687" y="15199995"/>
-          <a:ext cx="1277937" cy="1533524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
       <xdr:colOff>168274</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>57148</xdr:rowOff>
@@ -1545,7 +1569,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1595,7 +1619,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1645,7 +1669,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1695,7 +1719,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1745,7 +1769,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1795,7 +1819,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1845,7 +1869,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1871,15 +1895,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>94850</xdr:colOff>
+      <xdr:colOff>123425</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1372375</xdr:colOff>
+      <xdr:colOff>1400950</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1628280</xdr:rowOff>
+      <xdr:rowOff>1571130</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1895,7 +1919,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1908,7 +1932,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6724250" y="20707350"/>
+          <a:off x="7600550" y="20545425"/>
           <a:ext cx="1277525" cy="1533030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1945,7 +1969,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1994,7 +2018,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2044,7 +2068,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2094,7 +2118,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2144,7 +2168,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2194,7 +2218,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2244,7 +2268,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2293,7 +2317,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2343,7 +2367,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2393,7 +2417,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2443,7 +2467,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2493,7 +2517,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2542,7 +2566,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2592,7 +2616,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2607,6 +2631,1003 @@
         <a:xfrm>
           <a:off x="5714998" y="45555361"/>
           <a:ext cx="1782538" cy="1479171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>34638</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>57728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1876426</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>1582704</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Imagen 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5351580D-E673-496E-944B-4510879ACA5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7511763" y="97831853"/>
+          <a:ext cx="1841788" cy="1524976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>67540</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>39833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1859732</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>1524001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Imagen 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC590988-08F4-4A09-B4C8-5EB615BC3CDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7544665" y="99433208"/>
+          <a:ext cx="1792192" cy="1484168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>20374</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>15280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1891530</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>1568823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Imagen 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1FC649B-FADA-4A41-A4D8-A0031B7EDEB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7505903" y="101125956"/>
+          <a:ext cx="1871156" cy="1553543"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2241</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1882589</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>1611780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Imagen 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB4BAC1-00ED-4B85-990F-72CAF24CD62B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7487770" y="102780353"/>
+          <a:ext cx="1880348" cy="1566956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4482</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>1602441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Imagen 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04179AFF-BB47-437F-AFAC-0A2A35D5FD5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7507940" y="105996440"/>
+          <a:ext cx="1909483" cy="1591236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>24653</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>24278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1918449</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>1602441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Imagen 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F32834E8-1F8C-47DB-A60A-29C82648A296}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7510182" y="109259219"/>
+          <a:ext cx="1893796" cy="1578163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22415</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1871383</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>1344707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Imagen 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96164943-1479-4DC2-9D2F-2A41E9526E8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="5061" r="4714" b="13859"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7507944" y="110893411"/>
+          <a:ext cx="1848968" cy="1311090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7203</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>35219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1845976</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>1564821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Imagen 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38C81541-51EA-4BC5-9F2D-4A1610EF9DD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7504739" y="112130862"/>
+          <a:ext cx="1838773" cy="1529602"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1564821</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1578428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Imagen 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A8396B-DAAA-4995-975F-32C16ADE99BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7769679" y="15090322"/>
+          <a:ext cx="1292678" cy="1551213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>46265</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1760765</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1524000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Imagen 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7917387-3C39-4E9B-9B8D-AFBC9C27B9A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5720444" y="36562393"/>
+          <a:ext cx="1714500" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>40823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1782536</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1522937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Imagen 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C1AB659-59CD-4832-B767-AD6B5A15C038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7501536" y="38304109"/>
+          <a:ext cx="1778536" cy="1482114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1891393</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1635126</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Imagen 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A73854F1-72AA-402F-8902-3CD0C9B7252F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524751" y="34643787"/>
+          <a:ext cx="1864178" cy="1553482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>35381</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1592036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Imagen 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66DB9E36-6797-47DC-BAE7-C440215CDB05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5687787" y="34616570"/>
+          <a:ext cx="1845130" cy="1537609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>78523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1836964</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1562039</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Imagen 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E94307-0584-4989-988A-1321494B9F8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="23319" b="27311"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5728608" y="41988523"/>
+          <a:ext cx="3605892" cy="1483516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>44826</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>5869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1736914</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>1550412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Imagen 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{731C175F-3833-41D7-BA8D-532BF2468E17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3129" r="5039"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715002" y="47417957"/>
+          <a:ext cx="1692088" cy="1544543"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63556</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>74617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1758588</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>1483179</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Imagen 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC2E4B9-070A-4443-A051-6BD542B42799}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5737735" y="49169188"/>
+          <a:ext cx="1695032" cy="1408562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>244927</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1548945</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1578428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Imagen 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC55152-812C-4A6A-9F08-7B51845C8ABC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5919106" y="63504535"/>
+          <a:ext cx="1304018" cy="1564822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>122467</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1632857</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>1567540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Imagen 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F977FB51-F80B-4A5E-B585-9D3DFCD1AD12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5796646" y="66786579"/>
+          <a:ext cx="1510390" cy="1510390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1646463</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>1537605</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Imagen 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4302B2A-74C5-40CD-A050-D2D66788913B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5823858" y="68389500"/>
+          <a:ext cx="1496784" cy="1496784"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>69398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>1549566</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Imagen 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42FED4A1-83B5-497A-A35C-87984685EA45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5679621" y="51085298"/>
+          <a:ext cx="1768929" cy="1480168"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2941,7 +3962,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.25" customWidth="1"/>
@@ -2953,7 +3974,7 @@
     <col min="15" max="15" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2961,7 +3982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="B2">
         <v>1</v>
       </c>
@@ -2987,7 +4008,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -3016,7 +4037,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>10002</v>
       </c>
@@ -3043,7 +4064,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>10003</v>
       </c>
@@ -3068,7 +4089,7 @@
       <c r="L5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>10004</v>
       </c>
@@ -3092,7 +4113,7 @@
       </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>10005</v>
       </c>
@@ -3108,7 +4129,7 @@
       <c r="L7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>10006</v>
       </c>
@@ -3124,7 +4145,7 @@
       <c r="L8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>10007</v>
       </c>
@@ -3139,7 +4160,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>10008</v>
       </c>
@@ -3150,7 +4171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>10009</v>
       </c>
@@ -3164,7 +4185,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>10010</v>
       </c>
@@ -3176,7 +4197,7 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>10011</v>
       </c>
@@ -3194,7 +4215,7 @@
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>10012</v>
       </c>
@@ -3211,7 +4232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="B16">
         <v>2</v>
       </c>
@@ -3222,7 +4243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>20001</v>
       </c>
@@ -3250,7 +4271,7 @@
       <c r="L17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>20002</v>
       </c>
@@ -3277,7 +4298,7 @@
       </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>20003</v>
       </c>
@@ -3300,7 +4321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>20004</v>
       </c>
@@ -3323,7 +4344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>20005</v>
       </c>
@@ -3349,7 +4370,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>20006</v>
       </c>
@@ -3375,7 +4396,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="B24">
         <v>3</v>
       </c>
@@ -3386,7 +4407,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>30001</v>
       </c>
@@ -3406,7 +4427,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>30002</v>
       </c>
@@ -3426,7 +4447,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>30003</v>
       </c>
@@ -3446,7 +4467,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>30004</v>
       </c>
@@ -3460,7 +4481,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>30005</v>
       </c>
@@ -3474,7 +4495,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>30006</v>
       </c>
@@ -3488,7 +4509,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>30007</v>
       </c>
@@ -3502,7 +4523,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>30008</v>
       </c>
@@ -3516,7 +4537,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>30009</v>
       </c>
@@ -3530,7 +4551,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>30010</v>
       </c>
@@ -3544,7 +4565,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>30011</v>
       </c>
@@ -3555,7 +4576,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>30012</v>
       </c>
@@ -3566,7 +4587,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>30013</v>
       </c>
@@ -3577,7 +4598,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>30014</v>
       </c>
@@ -3588,7 +4609,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="B40">
         <v>4</v>
       </c>
@@ -3596,7 +4617,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40001</v>
       </c>
@@ -3610,7 +4631,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>40002</v>
       </c>
@@ -3624,7 +4645,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>40003</v>
       </c>
@@ -3638,7 +4659,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>40004</v>
       </c>
@@ -3652,7 +4673,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>40005</v>
       </c>
@@ -3666,7 +4687,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>40006</v>
       </c>
@@ -3677,7 +4698,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="B48">
         <v>5</v>
       </c>
@@ -3685,7 +4706,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>50001</v>
       </c>
@@ -3699,7 +4720,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>50002</v>
       </c>
@@ -3713,7 +4734,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>50003</v>
       </c>
@@ -3724,7 +4745,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>50004</v>
       </c>
@@ -3738,7 +4759,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>50005</v>
       </c>
@@ -3749,7 +4770,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>50006</v>
       </c>
@@ -3760,7 +4781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>50007</v>
       </c>
@@ -3771,7 +4792,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="B57">
         <v>6</v>
       </c>
@@ -3779,7 +4800,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>60001</v>
       </c>
@@ -3793,7 +4814,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>60002</v>
       </c>
@@ -3807,7 +4828,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>60003</v>
       </c>
@@ -3821,7 +4842,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>60004</v>
       </c>
@@ -3835,7 +4856,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>60005</v>
       </c>
@@ -3849,7 +4870,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>60006</v>
       </c>
@@ -3860,7 +4881,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="B65">
         <v>7</v>
       </c>
@@ -3871,7 +4892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>70001</v>
       </c>
@@ -3897,7 +4918,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>70002</v>
       </c>
@@ -3923,7 +4944,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>70003</v>
       </c>
@@ -3949,7 +4970,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>70004</v>
       </c>
@@ -3975,7 +4996,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="B71">
         <v>8</v>
       </c>
@@ -3986,7 +5007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>80001</v>
       </c>
@@ -4012,7 +5033,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>80002</v>
       </c>
@@ -4038,7 +5059,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>80003</v>
       </c>
@@ -4064,7 +5085,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>80004</v>
       </c>
@@ -4090,7 +5111,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="B77">
         <v>9</v>
       </c>
@@ -4101,7 +5122,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>90001</v>
       </c>
@@ -4127,7 +5148,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>90002</v>
       </c>
@@ -4153,7 +5174,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>90003</v>
       </c>
@@ -4179,7 +5200,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>90004</v>
       </c>
@@ -4205,7 +5226,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10">
       <c r="B83">
         <v>10</v>
       </c>
@@ -4216,7 +5237,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>100001</v>
       </c>
@@ -4233,7 +5254,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10">
       <c r="B86">
         <v>11</v>
       </c>
@@ -4244,7 +5265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>110001</v>
       </c>
@@ -4258,7 +5279,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>120001</v>
       </c>
@@ -4275,7 +5296,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10">
       <c r="B91">
         <v>13</v>
       </c>
@@ -4286,7 +5307,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>130001</v>
       </c>
@@ -4300,7 +5321,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>130002</v>
       </c>
@@ -4311,7 +5332,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10">
       <c r="B95">
         <v>14</v>
       </c>
@@ -4319,7 +5340,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>140001</v>
       </c>
@@ -4333,7 +5354,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>140002</v>
       </c>
@@ -4347,7 +5368,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>140003</v>
       </c>
@@ -4361,7 +5382,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>140004</v>
       </c>
@@ -4372,7 +5393,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>140005</v>
       </c>
@@ -4386,7 +5407,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9">
       <c r="A101">
         <v>140006</v>
       </c>
@@ -4400,7 +5421,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="A102">
         <v>140007</v>
       </c>
@@ -4414,7 +5435,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="A103">
         <v>140008</v>
       </c>
@@ -4428,7 +5449,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9">
       <c r="A104">
         <v>140009</v>
       </c>
@@ -4442,7 +5463,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="A105">
         <v>140010</v>
       </c>
@@ -4456,7 +5477,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9">
       <c r="A106">
         <v>140011</v>
       </c>
@@ -4467,7 +5488,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9">
       <c r="A107">
         <v>140012</v>
       </c>
@@ -4481,7 +5502,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9">
       <c r="A108">
         <v>140013</v>
       </c>
@@ -4495,7 +5516,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9">
       <c r="B110">
         <v>15</v>
       </c>
@@ -4503,7 +5524,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9">
       <c r="A111">
         <v>150001</v>
       </c>
@@ -4517,7 +5538,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9">
       <c r="A112">
         <v>150002</v>
       </c>
@@ -4537,11 +5558,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106ADB30-1909-4A3E-AA9A-5631D32C008F}">
   <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="41.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.875" customWidth="1"/>
@@ -4552,7 +5573,7 @@
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4561,7 +5582,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="B2">
         <v>1</v>
       </c>
@@ -4573,7 +5594,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="19" customFormat="1">
       <c r="A3" s="18">
         <v>10001</v>
       </c>
@@ -4600,14 +5621,14 @@
       </c>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="1:12" s="22" customFormat="1" ht="132.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="22" customFormat="1" ht="132.75" customHeight="1" thickBot="1">
       <c r="A4" s="21"/>
       <c r="D4" s="26" t="s">
         <v>122</v>
       </c>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:12" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="19" customFormat="1" ht="14.25" customHeight="1">
       <c r="A5" s="18">
         <v>10002</v>
       </c>
@@ -4633,14 +5654,14 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="24" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="24" customFormat="1" ht="129" customHeight="1" thickBot="1">
       <c r="A6" s="27"/>
       <c r="D6" s="28" t="s">
         <v>121</v>
       </c>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="19" customFormat="1">
       <c r="A7" s="18">
         <v>10003</v>
       </c>
@@ -4664,11 +5685,11 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:12" s="22" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="22" customFormat="1" ht="129" customHeight="1" thickBot="1">
       <c r="A8" s="21"/>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="19" customFormat="1">
       <c r="A9" s="18">
         <v>10004</v>
       </c>
@@ -4685,14 +5706,14 @@
       <c r="G9" s="30"/>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:12" s="22" customFormat="1" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="22" customFormat="1" ht="129.75" customHeight="1" thickBot="1">
       <c r="A10" s="21"/>
       <c r="D10" s="26" t="s">
         <v>120</v>
       </c>
       <c r="I10" s="23"/>
     </row>
-    <row r="11" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="19" customFormat="1">
       <c r="A11" s="18">
         <v>10005</v>
       </c>
@@ -4715,14 +5736,14 @@
         <v>399</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="22" customFormat="1" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="22" customFormat="1" ht="129.75" customHeight="1" thickBot="1">
       <c r="A12" s="21"/>
       <c r="D12" s="26" t="s">
         <v>122</v>
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="19" customFormat="1">
       <c r="A13" s="18">
         <v>10006</v>
       </c>
@@ -4745,14 +5766,14 @@
         <v>599</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="24" customFormat="1" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="24" customFormat="1" ht="126.75" customHeight="1" thickBot="1">
       <c r="A14" s="27"/>
       <c r="D14" s="28" t="s">
         <v>122</v>
       </c>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="19" customFormat="1">
       <c r="A15" s="18">
         <v>10007</v>
       </c>
@@ -4772,14 +5793,14 @@
         <v>999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="22" customFormat="1" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="22" customFormat="1" ht="126" customHeight="1" thickBot="1">
       <c r="A16" s="21"/>
       <c r="D16" s="26" t="s">
         <v>122</v>
       </c>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="19" customFormat="1">
       <c r="A17" s="18">
         <v>10008</v>
       </c>
@@ -4797,14 +5818,14 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" s="22" customFormat="1" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="22" customFormat="1" ht="128.25" customHeight="1" thickBot="1">
       <c r="A18" s="21"/>
       <c r="D18" s="26" t="s">
         <v>122</v>
       </c>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="19" customFormat="1">
       <c r="A19" s="18">
         <v>10009</v>
       </c>
@@ -4824,14 +5845,14 @@
         <v>799</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="22" customFormat="1" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="22" customFormat="1" ht="125.25" customHeight="1" thickBot="1">
       <c r="A20" s="21"/>
       <c r="D20" s="26" t="s">
         <v>122</v>
       </c>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="19" customFormat="1">
       <c r="A21" s="18">
         <v>10010</v>
       </c>
@@ -4849,14 +5870,14 @@
       </c>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" s="22" customFormat="1" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="22" customFormat="1" ht="128.25" customHeight="1" thickBot="1">
       <c r="A22" s="21"/>
       <c r="D22" s="26" t="s">
         <v>122</v>
       </c>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="19" customFormat="1">
       <c r="A23" s="18">
         <v>10011</v>
       </c>
@@ -4874,14 +5895,14 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" s="22" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="22" customFormat="1" ht="129" customHeight="1" thickBot="1">
       <c r="A24" s="21"/>
       <c r="D24" s="29" t="s">
         <v>122</v>
       </c>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="19" customFormat="1">
       <c r="A25" s="18">
         <v>10012</v>
       </c>
@@ -4899,17 +5920,17 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" s="22" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="22" customFormat="1" ht="129" customHeight="1" thickBot="1">
       <c r="A26" s="21"/>
       <c r="D26" s="29" t="s">
         <v>122</v>
       </c>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="7" customFormat="1" ht="44.25" customHeight="1">
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15.75" thickBot="1">
       <c r="B28">
         <v>2</v>
       </c>
@@ -4921,7 +5942,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="19" customFormat="1">
       <c r="A29" s="18">
         <v>20001</v>
       </c>
@@ -4947,14 +5968,14 @@
         <v>999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="24" customFormat="1" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="24" customFormat="1" ht="127.5" customHeight="1" thickBot="1">
       <c r="A30" s="27"/>
       <c r="D30" s="28" t="s">
         <v>123</v>
       </c>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="19" customFormat="1">
       <c r="A31" s="18">
         <v>20002</v>
       </c>
@@ -4980,14 +6001,14 @@
         <v>799</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="22" customFormat="1" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="22" customFormat="1" ht="128.25" customHeight="1" thickBot="1">
       <c r="A32" s="21"/>
       <c r="D32" s="26" t="s">
         <v>123</v>
       </c>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" s="19" customFormat="1">
       <c r="A33" s="18">
         <v>20003</v>
       </c>
@@ -5011,14 +6032,14 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:12" s="22" customFormat="1" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" s="22" customFormat="1" ht="127.5" customHeight="1" thickBot="1">
       <c r="A34" s="21"/>
       <c r="D34" s="26" t="s">
         <v>123</v>
       </c>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" s="19" customFormat="1">
       <c r="A35" s="18">
         <v>20004</v>
       </c>
@@ -5042,14 +6063,14 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:12" s="22" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" s="22" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
       <c r="A36" s="21"/>
       <c r="D36" s="26" t="s">
         <v>123</v>
       </c>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" s="19" customFormat="1">
       <c r="A37" s="18">
         <v>20005</v>
       </c>
@@ -5075,14 +6096,14 @@
         <v>799</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="22" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="22" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
       <c r="A38" s="21"/>
       <c r="D38" s="26" t="s">
         <v>123</v>
       </c>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" s="19" customFormat="1">
       <c r="A39" s="18">
         <v>20006</v>
       </c>
@@ -5108,17 +6129,17 @@
         <v>549</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="22" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" s="22" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
       <c r="A40" s="21"/>
       <c r="D40" s="26" t="s">
         <v>123</v>
       </c>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:12" s="10" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="10" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
       <c r="I41" s="11"/>
     </row>
-    <row r="42" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" s="19" customFormat="1" ht="15">
       <c r="A42" s="18"/>
       <c r="B42" s="19">
         <v>3</v>
@@ -5131,7 +6152,7 @@
       </c>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" s="3" customFormat="1">
       <c r="A43" s="37">
         <v>30001</v>
       </c>
@@ -5160,14 +6181,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="22" customFormat="1" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" s="22" customFormat="1" ht="136.5" customHeight="1" thickBot="1">
       <c r="A44" s="21"/>
       <c r="D44" s="29" t="s">
         <v>124</v>
       </c>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" s="19" customFormat="1">
       <c r="A45" s="18">
         <v>30002</v>
       </c>
@@ -5187,14 +6208,14 @@
         <v>450</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="22" customFormat="1" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" s="22" customFormat="1" ht="127.5" customHeight="1" thickBot="1">
       <c r="A46" s="21"/>
       <c r="D46" s="29" t="s">
         <v>124</v>
       </c>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" s="19" customFormat="1">
       <c r="A47" s="18">
         <v>30003</v>
       </c>
@@ -5214,14 +6235,14 @@
         <v>699</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="22" customFormat="1" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" s="22" customFormat="1" ht="131.25" customHeight="1" thickBot="1">
       <c r="A48" s="21"/>
       <c r="D48" s="29" t="s">
         <v>124</v>
       </c>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="19" customFormat="1">
       <c r="A49" s="18">
         <v>30004</v>
       </c>
@@ -5235,11 +6256,11 @@
         <v>595</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
       <c r="A50" s="31"/>
       <c r="I50" s="32"/>
     </row>
-    <row r="51" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="24" customFormat="1">
       <c r="A51" s="27">
         <v>30005</v>
       </c>
@@ -5253,11 +6274,11 @@
         <v>999</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
       <c r="A52" s="31"/>
       <c r="I52" s="32"/>
     </row>
-    <row r="53" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="19" customFormat="1">
       <c r="A53" s="18">
         <v>30006</v>
       </c>
@@ -5271,11 +6292,11 @@
         <v>389</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
       <c r="A54" s="31"/>
       <c r="I54" s="32"/>
     </row>
-    <row r="55" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" s="19" customFormat="1">
       <c r="A55" s="18">
         <v>30007</v>
       </c>
@@ -5289,11 +6310,11 @@
         <v>565</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
       <c r="A56" s="31"/>
       <c r="I56" s="32"/>
     </row>
-    <row r="57" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" s="19" customFormat="1">
       <c r="A57" s="18">
         <v>30008</v>
       </c>
@@ -5307,12 +6328,12 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="34" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="34" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
       <c r="A58" s="33"/>
       <c r="D58" s="29"/>
       <c r="I58" s="35"/>
     </row>
-    <row r="59" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="19" customFormat="1">
       <c r="A59" s="18">
         <v>30009</v>
       </c>
@@ -5326,11 +6347,11 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
       <c r="A60" s="31"/>
       <c r="I60" s="32"/>
     </row>
-    <row r="61" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" s="19" customFormat="1">
       <c r="A61" s="18">
         <v>30010</v>
       </c>
@@ -5344,11 +6365,11 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
       <c r="A62" s="31"/>
       <c r="I62" s="32"/>
     </row>
-    <row r="63" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" s="19" customFormat="1">
       <c r="A63" s="18">
         <v>30011</v>
       </c>
@@ -5360,11 +6381,11 @@
       </c>
       <c r="I63" s="20"/>
     </row>
-    <row r="64" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
       <c r="A64" s="31"/>
       <c r="I64" s="32"/>
     </row>
-    <row r="65" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" s="19" customFormat="1">
       <c r="A65" s="18">
         <v>30012</v>
       </c>
@@ -5376,11 +6397,11 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
       <c r="A66" s="31"/>
       <c r="I66" s="32"/>
     </row>
-    <row r="67" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" s="19" customFormat="1">
       <c r="A67" s="18">
         <v>30013</v>
       </c>
@@ -5392,11 +6413,11 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
       <c r="A68" s="31"/>
       <c r="I68" s="32"/>
     </row>
-    <row r="69" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" s="19" customFormat="1">
       <c r="A69" s="18">
         <v>30014</v>
       </c>
@@ -5408,14 +6429,14 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
       <c r="A70" s="31"/>
       <c r="I70" s="32"/>
     </row>
-    <row r="71" spans="1:9" s="12" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" s="12" customFormat="1" ht="29.25" customHeight="1">
       <c r="I71" s="13"/>
     </row>
-    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15">
       <c r="B72">
         <v>4</v>
       </c>
@@ -5424,92 +6445,92 @@
       </c>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
       <c r="A73" s="16">
         <v>40001</v>
       </c>
       <c r="C73" s="16">
         <v>33</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="40" t="s">
         <v>48</v>
       </c>
       <c r="I73" s="17">
         <v>599</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
       <c r="A74" s="16">
         <v>40002</v>
       </c>
       <c r="C74" s="16">
         <v>34</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="40" t="s">
         <v>49</v>
       </c>
       <c r="I74" s="17">
         <v>445</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
       <c r="A75" s="16">
         <v>40003</v>
       </c>
       <c r="C75" s="16">
         <v>35</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="40" t="s">
         <v>50</v>
       </c>
       <c r="I75" s="17">
         <v>599</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
       <c r="A76" s="16">
         <v>40004</v>
       </c>
       <c r="C76" s="16">
         <v>36</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="D76" s="40" t="s">
         <v>51</v>
       </c>
       <c r="I76" s="17">
         <v>849</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
       <c r="A77" s="16">
         <v>40005</v>
       </c>
       <c r="C77" s="16">
         <v>37</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="D77" s="40" t="s">
         <v>52</v>
       </c>
       <c r="I77" s="17">
         <v>799</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
       <c r="A78" s="16">
         <v>40006</v>
       </c>
       <c r="C78" s="16">
         <v>38</v>
       </c>
-      <c r="D78" s="16" t="s">
+      <c r="D78" s="40" t="s">
         <v>53</v>
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" s="14" customFormat="1" ht="61.5" customHeight="1">
       <c r="I79" s="15"/>
     </row>
-    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15">
       <c r="B80">
         <v>5</v>
       </c>
@@ -5518,7 +6539,7 @@
       </c>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
       <c r="A81" s="16">
         <v>50001</v>
       </c>
@@ -5532,7 +6553,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
       <c r="A82" s="16">
         <v>50002</v>
       </c>
@@ -5546,7 +6567,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
       <c r="A83" s="16">
         <v>50003</v>
       </c>
@@ -5558,7 +6579,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
       <c r="A84" s="16">
         <v>50004</v>
       </c>
@@ -5572,7 +6593,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
       <c r="A85" s="16">
         <v>50005</v>
       </c>
@@ -5584,7 +6605,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
       <c r="A86" s="16">
         <v>50006</v>
       </c>
@@ -5596,7 +6617,7 @@
       </c>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
       <c r="A87" s="16">
         <v>50007</v>
       </c>
@@ -5608,10 +6629,10 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" s="10" customFormat="1" ht="46.5" customHeight="1">
+      <c r="I88" s="11"/>
+    </row>
+    <row r="89" spans="1:9" ht="15">
       <c r="B89">
         <v>6</v>
       </c>
@@ -5620,7 +6641,7 @@
       </c>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
       <c r="A90" s="16">
         <v>60001</v>
       </c>
@@ -5634,7 +6655,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
       <c r="A91" s="16">
         <v>60002</v>
       </c>
@@ -5648,7 +6669,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
       <c r="A92" s="16">
         <v>60003</v>
       </c>
@@ -5662,7 +6683,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
       <c r="A93" s="16">
         <v>60004</v>
       </c>
@@ -5676,7 +6697,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
       <c r="A94" s="16">
         <v>60005</v>
       </c>
@@ -5690,7 +6711,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
       <c r="A95" s="16">
         <v>60006</v>
       </c>
@@ -5702,10 +6723,10 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15">
       <c r="B97">
         <v>7</v>
       </c>
@@ -5717,7 +6738,7 @@
       </c>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>70001</v>
       </c>
@@ -5743,7 +6764,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>70002</v>
       </c>
@@ -5769,7 +6790,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>70003</v>
       </c>
@@ -5795,7 +6816,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9">
       <c r="A101">
         <v>70004</v>
       </c>
@@ -5821,10 +6842,10 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15">
       <c r="B103">
         <v>8</v>
       </c>
@@ -5836,7 +6857,7 @@
       </c>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9">
       <c r="A104">
         <v>80001</v>
       </c>
@@ -5862,7 +6883,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="A105">
         <v>80002</v>
       </c>
@@ -5888,7 +6909,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9">
       <c r="A106">
         <v>80003</v>
       </c>
@@ -5914,7 +6935,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9">
       <c r="A107">
         <v>80004</v>
       </c>
@@ -5940,10 +6961,10 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9">
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15">
       <c r="B109">
         <v>9</v>
       </c>
@@ -5955,7 +6976,7 @@
       </c>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9">
       <c r="A110">
         <v>90001</v>
       </c>
@@ -5981,7 +7002,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9">
       <c r="A111">
         <v>90002</v>
       </c>
@@ -6007,7 +7028,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9">
       <c r="A112">
         <v>90003</v>
       </c>
@@ -6033,7 +7054,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10">
       <c r="A113">
         <v>90004</v>
       </c>
@@ -6059,10 +7080,10 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10">
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="15">
       <c r="B115">
         <v>10</v>
       </c>
@@ -6074,7 +7095,7 @@
       </c>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10">
       <c r="A116">
         <v>100001</v>
       </c>
@@ -6091,10 +7112,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10">
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="15">
       <c r="B118">
         <v>11</v>
       </c>
@@ -6106,7 +7127,7 @@
       </c>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10">
       <c r="A119">
         <v>110001</v>
       </c>
@@ -6120,10 +7141,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10">
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10">
       <c r="A121">
         <v>120001</v>
       </c>
@@ -6141,10 +7162,10 @@
       </c>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10">
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="15">
       <c r="B123">
         <v>13</v>
       </c>
@@ -6155,7 +7176,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10">
       <c r="A124">
         <v>130001</v>
       </c>
@@ -6169,7 +7190,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10">
       <c r="A125">
         <v>130002</v>
       </c>
@@ -6181,10 +7202,10 @@
       </c>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" s="38" customFormat="1" ht="47.25" customHeight="1">
+      <c r="I126" s="39"/>
+    </row>
+    <row r="127" spans="1:10" ht="15.75" thickBot="1">
       <c r="B127">
         <v>14</v>
       </c>
@@ -6193,188 +7214,217 @@
       </c>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128">
+    <row r="128" spans="1:10" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
+      <c r="A128" s="41">
         <v>140001</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="42">
         <v>69</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="I128" s="1">
+      <c r="E128" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="I128" s="43">
         <v>1299</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129">
+    <row r="129" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
+      <c r="A129" s="41">
         <v>140002</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="42">
         <v>70</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="I129" s="1">
+      <c r="E129" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="I129" s="43">
         <v>1279</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130">
+    <row r="130" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
+      <c r="A130" s="41">
         <v>140003</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="42">
         <v>71</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="I130" s="1">
+      <c r="E130" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="I130" s="43">
         <v>1289</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131">
+    <row r="131" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
+      <c r="A131" s="41">
         <v>140004</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="42">
         <v>72</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132">
+      <c r="E131" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="I131" s="43"/>
+    </row>
+    <row r="132" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
+      <c r="A132" s="41">
         <v>140005</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="42">
         <v>73</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="I132" s="1">
+      <c r="E132" s="44"/>
+      <c r="F132" s="40"/>
+      <c r="I132" s="43">
         <v>1799</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133">
+    <row r="133" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
+      <c r="A133" s="41">
         <v>140006</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="42">
         <v>74</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="I133" s="1">
+      <c r="E133" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="I133" s="43">
         <v>1289</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134">
+    <row r="134" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
+      <c r="A134" s="41">
         <v>140007</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="42">
         <v>75</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="I134" s="1">
+      <c r="E134" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="I134" s="43">
         <v>1299</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135">
+    <row r="135" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
+      <c r="A135" s="41">
         <v>140008</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="42">
         <v>76</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="I135" s="1">
+      <c r="E135" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="I135" s="43">
         <v>889</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A136">
+    <row r="136" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
+      <c r="A136" s="41">
         <v>140009</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="42">
         <v>77</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="I136" s="1">
+      <c r="E136" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I136" s="43">
         <v>859</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137">
+    <row r="137" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
+      <c r="A137" s="41">
         <v>140010</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="42">
         <v>78</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="I137" s="1">
+      <c r="E137" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="I137" s="43">
         <v>999</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138">
+    <row r="138" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
+      <c r="A138" s="41">
         <v>140011</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="42">
         <v>79</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139">
+      <c r="I138" s="43"/>
+    </row>
+    <row r="139" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
+      <c r="A139" s="41">
         <v>140012</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="42">
         <v>80</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="I139" s="1">
+      <c r="I139" s="43">
         <v>250</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140">
+    <row r="140" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
+      <c r="A140" s="41">
         <v>140013</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="42">
         <v>81</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="I140" s="1">
+      <c r="I140" s="43">
         <v>599</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9">
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9">
       <c r="B142">
         <v>15</v>
       </c>
@@ -6383,7 +7433,7 @@
       </c>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9">
       <c r="A143">
         <v>150001</v>
       </c>

--- a/Imagenes paginas web/Productos MIFERRE.xlsx
+++ b/Imagenes paginas web/Productos MIFERRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crisp\Desktop\Trabajo\Imagenes paginas web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEB9849-7A83-4950-B115-14BCE37FDFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1230C4D0-838B-49C7-8B7C-F92BA749ECBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{2471D800-5301-4056-9942-9B68FF7895A4}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="141">
   <si>
     <t xml:space="preserve">CAT </t>
   </si>
@@ -431,6 +431,27 @@
   </si>
   <si>
     <t>1.80mts de largo - 89.5 cm ancho - 45 cm alto</t>
+  </si>
+  <si>
+    <t>Combo push con mueble BB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combo lavamanos con pedestal y sanitario bologna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combo lavamanos con pedestal y sanitario Push </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combo lavamanos con pedestal y sanitario One Piece </t>
+  </si>
+  <si>
+    <t>Combo lavamanos con pedestal y sanitario Elongado</t>
+  </si>
+  <si>
+    <t>Combo lavamanos con pedestal y sanitario Roma</t>
+  </si>
+  <si>
+    <t>Combo lavamanos con pedestal y sanitario London</t>
   </si>
 </sst>
 </file>
@@ -440,7 +461,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,7 +485,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,6 +525,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -677,9 +704,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -714,6 +738,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -2246,13 +2288,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>204107</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>28148</xdr:rowOff>
+      <xdr:rowOff>28149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1551213</xdr:colOff>
+      <xdr:colOff>1551079</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>1581305</xdr:rowOff>
+      <xdr:rowOff>1581151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2280,8 +2322,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7701643" y="26276327"/>
-          <a:ext cx="1347106" cy="1553157"/>
+          <a:off x="7681232" y="26726724"/>
+          <a:ext cx="1346972" cy="1553002"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2343,56 +2385,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1592034</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>1581149</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Imagen 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0834F854-2C25-4296-A6AA-9236FA09ED5B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7783285" y="22655893"/>
-          <a:ext cx="1306285" cy="1567542"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>24278</xdr:rowOff>
@@ -2417,7 +2409,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2467,7 +2459,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2517,7 +2509,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2566,7 +2558,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2616,7 +2608,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2643,13 +2635,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>34638</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>57728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1876426</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>1582704</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2666,7 +2658,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2693,13 +2685,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>67540</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>39833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1859732</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>1524001</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2716,7 +2708,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2743,13 +2735,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>20374</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>15280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1891530</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>1568823</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2766,7 +2758,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2793,13 +2785,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2241</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1882589</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>1611780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2816,7 +2808,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2843,13 +2835,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>4482</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>1602441</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2866,7 +2858,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2893,13 +2885,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>24653</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>24278</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1918449</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>1602441</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2916,7 +2908,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2943,13 +2935,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>22415</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1871383</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>1344707</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2966,7 +2958,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2992,13 +2984,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>7203</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>35219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1845976</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>1564821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3015,7 +3007,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3065,7 +3057,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3115,7 +3107,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3165,7 +3157,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3215,7 +3207,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3265,7 +3257,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3315,7 +3307,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3364,7 +3356,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3413,7 +3405,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3463,7 +3455,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3513,7 +3505,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3563,7 +3555,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3613,7 +3605,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3628,6 +3620,115 @@
         <a:xfrm>
           <a:off x="5679621" y="51085298"/>
           <a:ext cx="1768929" cy="1480168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>207997</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1613647</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1607203</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Imagen 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0BECC6-4EE4-4CC3-80AC-CE7651CBA8F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="11780" b="5821"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7693526" y="23084119"/>
+          <a:ext cx="1405650" cy="1573584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>8165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1796143</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>1575707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B924D1C-33A9-44B8-8315-EAF994D5FBB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5728608" y="83052558"/>
+          <a:ext cx="1741714" cy="1567542"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3962,7 +4063,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.25" customWidth="1"/>
@@ -3974,7 +4075,7 @@
     <col min="15" max="15" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3982,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
@@ -4008,7 +4109,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -4037,7 +4138,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10002</v>
       </c>
@@ -4064,7 +4165,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10003</v>
       </c>
@@ -4089,7 +4190,7 @@
       <c r="L5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10004</v>
       </c>
@@ -4113,7 +4214,7 @@
       </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10005</v>
       </c>
@@ -4129,7 +4230,7 @@
       <c r="L7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10006</v>
       </c>
@@ -4145,7 +4246,7 @@
       <c r="L8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10007</v>
       </c>
@@ -4160,7 +4261,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10008</v>
       </c>
@@ -4171,7 +4272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10009</v>
       </c>
@@ -4185,7 +4286,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10010</v>
       </c>
@@ -4197,7 +4298,7 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10011</v>
       </c>
@@ -4215,7 +4316,7 @@
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10012</v>
       </c>
@@ -4232,7 +4333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>2</v>
       </c>
@@ -4243,7 +4344,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>20001</v>
       </c>
@@ -4271,7 +4372,7 @@
       <c r="L17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>20002</v>
       </c>
@@ -4298,7 +4399,7 @@
       </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>20003</v>
       </c>
@@ -4321,7 +4422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20004</v>
       </c>
@@ -4344,7 +4445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20005</v>
       </c>
@@ -4370,7 +4471,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20006</v>
       </c>
@@ -4396,7 +4497,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>3</v>
       </c>
@@ -4407,7 +4508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>30001</v>
       </c>
@@ -4427,7 +4528,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>30002</v>
       </c>
@@ -4447,7 +4548,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>30003</v>
       </c>
@@ -4467,7 +4568,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>30004</v>
       </c>
@@ -4481,7 +4582,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>30005</v>
       </c>
@@ -4495,7 +4596,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30006</v>
       </c>
@@ -4509,7 +4610,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30007</v>
       </c>
@@ -4523,7 +4624,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30008</v>
       </c>
@@ -4537,7 +4638,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30009</v>
       </c>
@@ -4551,7 +4652,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30010</v>
       </c>
@@ -4565,7 +4666,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>30011</v>
       </c>
@@ -4576,7 +4677,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>30012</v>
       </c>
@@ -4587,7 +4688,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>30013</v>
       </c>
@@ -4598,7 +4699,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>30014</v>
       </c>
@@ -4609,7 +4710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>4</v>
       </c>
@@ -4617,7 +4718,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40001</v>
       </c>
@@ -4631,7 +4732,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40002</v>
       </c>
@@ -4645,7 +4746,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40003</v>
       </c>
@@ -4659,7 +4760,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>40004</v>
       </c>
@@ -4673,7 +4774,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>40005</v>
       </c>
@@ -4687,7 +4788,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>40006</v>
       </c>
@@ -4698,7 +4799,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>5</v>
       </c>
@@ -4706,7 +4807,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>50001</v>
       </c>
@@ -4720,7 +4821,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50002</v>
       </c>
@@ -4734,7 +4835,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50003</v>
       </c>
@@ -4745,7 +4846,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50004</v>
       </c>
@@ -4759,7 +4860,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50005</v>
       </c>
@@ -4770,7 +4871,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>50006</v>
       </c>
@@ -4781,7 +4882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>50007</v>
       </c>
@@ -4792,7 +4893,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>6</v>
       </c>
@@ -4800,7 +4901,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>60001</v>
       </c>
@@ -4814,7 +4915,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>60002</v>
       </c>
@@ -4828,7 +4929,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60003</v>
       </c>
@@ -4842,7 +4943,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60004</v>
       </c>
@@ -4856,7 +4957,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60005</v>
       </c>
@@ -4870,7 +4971,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>60006</v>
       </c>
@@ -4881,7 +4982,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>7</v>
       </c>
@@ -4892,7 +4993,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>70001</v>
       </c>
@@ -4918,7 +5019,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>70002</v>
       </c>
@@ -4944,7 +5045,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>70003</v>
       </c>
@@ -4970,7 +5071,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>70004</v>
       </c>
@@ -4996,7 +5097,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>8</v>
       </c>
@@ -5007,7 +5108,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>80001</v>
       </c>
@@ -5033,7 +5134,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>80002</v>
       </c>
@@ -5059,7 +5160,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>80003</v>
       </c>
@@ -5085,7 +5186,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>80004</v>
       </c>
@@ -5111,7 +5212,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>9</v>
       </c>
@@ -5122,7 +5223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>90001</v>
       </c>
@@ -5148,7 +5249,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>90002</v>
       </c>
@@ -5174,7 +5275,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>90003</v>
       </c>
@@ -5200,7 +5301,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>90004</v>
       </c>
@@ -5226,7 +5327,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>10</v>
       </c>
@@ -5237,7 +5338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>100001</v>
       </c>
@@ -5254,7 +5355,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>11</v>
       </c>
@@ -5265,7 +5366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>110001</v>
       </c>
@@ -5279,7 +5380,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>120001</v>
       </c>
@@ -5296,7 +5397,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>13</v>
       </c>
@@ -5307,7 +5408,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>130001</v>
       </c>
@@ -5321,7 +5422,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>130002</v>
       </c>
@@ -5332,7 +5433,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>14</v>
       </c>
@@ -5340,7 +5441,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>140001</v>
       </c>
@@ -5354,7 +5455,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>140002</v>
       </c>
@@ -5368,7 +5469,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>140003</v>
       </c>
@@ -5382,7 +5483,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>140004</v>
       </c>
@@ -5393,7 +5494,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>140005</v>
       </c>
@@ -5407,7 +5508,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>140006</v>
       </c>
@@ -5421,7 +5522,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>140007</v>
       </c>
@@ -5435,7 +5536,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>140008</v>
       </c>
@@ -5449,7 +5550,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>140009</v>
       </c>
@@ -5463,7 +5564,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>140010</v>
       </c>
@@ -5477,7 +5578,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>140011</v>
       </c>
@@ -5488,7 +5589,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>140012</v>
       </c>
@@ -5502,7 +5603,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>140013</v>
       </c>
@@ -5516,7 +5617,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B110">
         <v>15</v>
       </c>
@@ -5524,7 +5625,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>150001</v>
       </c>
@@ -5538,7 +5639,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>150002</v>
       </c>
@@ -5556,13 +5657,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106ADB30-1909-4A3E-AA9A-5631D32C008F}">
-  <dimension ref="A1:L143"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G134" sqref="G134"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="41.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.875" customWidth="1"/>
@@ -5573,7 +5674,7 @@
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5582,7 +5683,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -5594,7 +5695,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:12" s="19" customFormat="1">
+    <row r="3" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>10001</v>
       </c>
@@ -5621,14 +5722,14 @@
       </c>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="1:12" s="22" customFormat="1" ht="132.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:12" s="22" customFormat="1" ht="132.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="D4" s="26" t="s">
         <v>122</v>
       </c>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:12" s="19" customFormat="1" ht="14.25" customHeight="1">
+    <row r="5" spans="1:12" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>10002</v>
       </c>
@@ -5654,14 +5755,14 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="24" customFormat="1" ht="129" customHeight="1" thickBot="1">
+    <row r="6" spans="1:12" s="24" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="D6" s="28" t="s">
         <v>121</v>
       </c>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="19" customFormat="1">
+    <row r="7" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>10003</v>
       </c>
@@ -5685,11 +5786,11 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:12" s="22" customFormat="1" ht="129" customHeight="1" thickBot="1">
+    <row r="8" spans="1:12" s="22" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="1:12" s="19" customFormat="1">
+    <row r="9" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>10004</v>
       </c>
@@ -5699,21 +5800,21 @@
       <c r="D9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:12" s="22" customFormat="1" ht="129.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:12" s="22" customFormat="1" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="D10" s="26" t="s">
         <v>120</v>
       </c>
       <c r="I10" s="23"/>
     </row>
-    <row r="11" spans="1:12" s="19" customFormat="1">
+    <row r="11" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>10005</v>
       </c>
@@ -5736,14 +5837,14 @@
         <v>399</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="22" customFormat="1" ht="129.75" customHeight="1" thickBot="1">
+    <row r="12" spans="1:12" s="22" customFormat="1" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="D12" s="26" t="s">
         <v>122</v>
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:12" s="19" customFormat="1">
+    <row r="13" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>10006</v>
       </c>
@@ -5766,14 +5867,14 @@
         <v>599</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="24" customFormat="1" ht="126.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:12" s="24" customFormat="1" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="D14" s="28" t="s">
         <v>122</v>
       </c>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:12" s="19" customFormat="1">
+    <row r="15" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>10007</v>
       </c>
@@ -5793,14 +5894,14 @@
         <v>999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="22" customFormat="1" ht="126" customHeight="1" thickBot="1">
+    <row r="16" spans="1:12" s="22" customFormat="1" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="D16" s="26" t="s">
         <v>122</v>
       </c>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" s="19" customFormat="1">
+    <row r="17" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>10008</v>
       </c>
@@ -5818,14 +5919,14 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" s="22" customFormat="1" ht="128.25" customHeight="1" thickBot="1">
+    <row r="18" spans="1:9" s="22" customFormat="1" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="D18" s="26" t="s">
         <v>122</v>
       </c>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" s="19" customFormat="1">
+    <row r="19" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>10009</v>
       </c>
@@ -5845,14 +5946,14 @@
         <v>799</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="22" customFormat="1" ht="125.25" customHeight="1" thickBot="1">
+    <row r="20" spans="1:9" s="22" customFormat="1" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="D20" s="26" t="s">
         <v>122</v>
       </c>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" s="19" customFormat="1">
+    <row r="21" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>10010</v>
       </c>
@@ -5870,14 +5971,14 @@
       </c>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" s="22" customFormat="1" ht="128.25" customHeight="1" thickBot="1">
+    <row r="22" spans="1:9" s="22" customFormat="1" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="D22" s="26" t="s">
         <v>122</v>
       </c>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" s="19" customFormat="1">
+    <row r="23" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>10011</v>
       </c>
@@ -5895,14 +5996,14 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" s="22" customFormat="1" ht="129" customHeight="1" thickBot="1">
+    <row r="24" spans="1:9" s="22" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="D24" s="29" t="s">
         <v>122</v>
       </c>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" s="19" customFormat="1">
+    <row r="25" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <v>10012</v>
       </c>
@@ -5920,17 +6021,17 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" s="22" customFormat="1" ht="129" customHeight="1" thickBot="1">
+    <row r="26" spans="1:9" s="22" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="D26" s="29" t="s">
         <v>122</v>
       </c>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" ht="44.25" customHeight="1">
+    <row r="27" spans="1:9" s="7" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1">
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>2</v>
       </c>
@@ -5942,7 +6043,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" s="19" customFormat="1">
+    <row r="29" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <v>20001</v>
       </c>
@@ -5968,14 +6069,14 @@
         <v>999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="24" customFormat="1" ht="127.5" customHeight="1" thickBot="1">
+    <row r="30" spans="1:9" s="24" customFormat="1" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="D30" s="28" t="s">
         <v>123</v>
       </c>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="1:9" s="19" customFormat="1">
+    <row r="31" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <v>20002</v>
       </c>
@@ -6001,14 +6102,14 @@
         <v>799</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="22" customFormat="1" ht="128.25" customHeight="1" thickBot="1">
+    <row r="32" spans="1:9" s="22" customFormat="1" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="D32" s="26" t="s">
         <v>123</v>
       </c>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:12" s="19" customFormat="1">
+    <row r="33" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <v>20003</v>
       </c>
@@ -6032,14 +6133,14 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:12" s="22" customFormat="1" ht="127.5" customHeight="1" thickBot="1">
+    <row r="34" spans="1:12" s="22" customFormat="1" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="D34" s="26" t="s">
         <v>123</v>
       </c>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:12" s="19" customFormat="1">
+    <row r="35" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
         <v>20004</v>
       </c>
@@ -6063,14 +6164,14 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:12" s="22" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
+    <row r="36" spans="1:12" s="22" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="D36" s="26" t="s">
         <v>123</v>
       </c>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:12" s="19" customFormat="1">
+    <row r="37" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <v>20005</v>
       </c>
@@ -6096,14 +6197,14 @@
         <v>799</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="22" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
+    <row r="38" spans="1:12" s="22" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="D38" s="26" t="s">
         <v>123</v>
       </c>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:12" s="19" customFormat="1">
+    <row r="39" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
         <v>20006</v>
       </c>
@@ -6129,22 +6230,22 @@
         <v>549</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="22" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
+    <row r="40" spans="1:12" s="22" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="D40" s="26" t="s">
         <v>123</v>
       </c>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:12" s="10" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
+    <row r="41" spans="1:12" s="10" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I41" s="11"/>
     </row>
-    <row r="42" spans="1:12" s="19" customFormat="1" ht="15">
+    <row r="42" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="19">
         <v>3</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D42" s="35" t="s">
         <v>29</v>
       </c>
       <c r="E42" s="19" t="s">
@@ -6152,8 +6253,8 @@
       </c>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:12" s="3" customFormat="1">
-      <c r="A43" s="37">
+    <row r="43" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="36">
         <v>30001</v>
       </c>
       <c r="C43" s="3">
@@ -6181,14 +6282,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="22" customFormat="1" ht="136.5" customHeight="1" thickBot="1">
+    <row r="44" spans="1:12" s="22" customFormat="1" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="D44" s="29" t="s">
         <v>124</v>
       </c>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="1:12" s="19" customFormat="1">
+    <row r="45" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <v>30002</v>
       </c>
@@ -6208,14 +6309,14 @@
         <v>450</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="22" customFormat="1" ht="127.5" customHeight="1" thickBot="1">
+    <row r="46" spans="1:12" s="22" customFormat="1" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
       <c r="D46" s="29" t="s">
         <v>124</v>
       </c>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:12" s="19" customFormat="1">
+    <row r="47" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
         <v>30003</v>
       </c>
@@ -6235,14 +6336,14 @@
         <v>699</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="22" customFormat="1" ht="131.25" customHeight="1" thickBot="1">
+    <row r="48" spans="1:12" s="22" customFormat="1" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
       <c r="D48" s="29" t="s">
         <v>124</v>
       </c>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="1:9" s="19" customFormat="1">
+    <row r="49" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <v>30004</v>
       </c>
@@ -6256,11 +6357,11 @@
         <v>595</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A50" s="31"/>
-      <c r="I50" s="32"/>
-    </row>
-    <row r="51" spans="1:9" s="24" customFormat="1">
+    <row r="50" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="30"/>
+      <c r="I50" s="31"/>
+    </row>
+    <row r="51" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
         <v>30005</v>
       </c>
@@ -6274,11 +6375,11 @@
         <v>999</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A52" s="31"/>
-      <c r="I52" s="32"/>
-    </row>
-    <row r="53" spans="1:9" s="19" customFormat="1">
+    <row r="52" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="30"/>
+      <c r="I52" s="31"/>
+    </row>
+    <row r="53" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
         <v>30006</v>
       </c>
@@ -6292,11 +6393,11 @@
         <v>389</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A54" s="31"/>
-      <c r="I54" s="32"/>
-    </row>
-    <row r="55" spans="1:9" s="19" customFormat="1">
+    <row r="54" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="30"/>
+      <c r="I54" s="31"/>
+    </row>
+    <row r="55" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <v>30007</v>
       </c>
@@ -6310,11 +6411,11 @@
         <v>565</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A56" s="31"/>
-      <c r="I56" s="32"/>
-    </row>
-    <row r="57" spans="1:9" s="19" customFormat="1">
+    <row r="56" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="30"/>
+      <c r="I56" s="31"/>
+    </row>
+    <row r="57" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <v>30008</v>
       </c>
@@ -6328,12 +6429,12 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="34" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A58" s="33"/>
+    <row r="58" spans="1:9" s="33" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="32"/>
       <c r="D58" s="29"/>
-      <c r="I58" s="35"/>
-    </row>
-    <row r="59" spans="1:9" s="19" customFormat="1">
+      <c r="I58" s="34"/>
+    </row>
+    <row r="59" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
         <v>30009</v>
       </c>
@@ -6347,11 +6448,11 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A60" s="31"/>
-      <c r="I60" s="32"/>
-    </row>
-    <row r="61" spans="1:9" s="19" customFormat="1">
+    <row r="60" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="30"/>
+      <c r="I60" s="31"/>
+    </row>
+    <row r="61" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18">
         <v>30010</v>
       </c>
@@ -6365,11 +6466,11 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A62" s="31"/>
-      <c r="I62" s="32"/>
-    </row>
-    <row r="63" spans="1:9" s="19" customFormat="1">
+    <row r="62" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="30"/>
+      <c r="I62" s="31"/>
+    </row>
+    <row r="63" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
         <v>30011</v>
       </c>
@@ -6381,11 +6482,11 @@
       </c>
       <c r="I63" s="20"/>
     </row>
-    <row r="64" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A64" s="31"/>
-      <c r="I64" s="32"/>
-    </row>
-    <row r="65" spans="1:9" s="19" customFormat="1">
+    <row r="64" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="30"/>
+      <c r="I64" s="31"/>
+    </row>
+    <row r="65" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="18">
         <v>30012</v>
       </c>
@@ -6397,11 +6498,11 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A66" s="31"/>
-      <c r="I66" s="32"/>
-    </row>
-    <row r="67" spans="1:9" s="19" customFormat="1">
+    <row r="66" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="30"/>
+      <c r="I66" s="31"/>
+    </row>
+    <row r="67" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="18">
         <v>30013</v>
       </c>
@@ -6413,11 +6514,11 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A68" s="31"/>
-      <c r="I68" s="32"/>
-    </row>
-    <row r="69" spans="1:9" s="19" customFormat="1">
+    <row r="68" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="30"/>
+      <c r="I68" s="31"/>
+    </row>
+    <row r="69" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="18">
         <v>30014</v>
       </c>
@@ -6429,14 +6530,14 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A70" s="31"/>
-      <c r="I70" s="32"/>
-    </row>
-    <row r="71" spans="1:9" s="12" customFormat="1" ht="29.25" customHeight="1">
+    <row r="70" spans="1:9" s="29" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="30"/>
+      <c r="I70" s="31"/>
+    </row>
+    <row r="71" spans="1:9" s="12" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I71" s="13"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>4</v>
       </c>
@@ -6445,92 +6546,92 @@
       </c>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
+    <row r="73" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16">
         <v>40001</v>
       </c>
       <c r="C73" s="16">
         <v>33</v>
       </c>
-      <c r="D73" s="40" t="s">
+      <c r="D73" s="39" t="s">
         <v>48</v>
       </c>
       <c r="I73" s="17">
         <v>599</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
+    <row r="74" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16">
         <v>40002</v>
       </c>
       <c r="C74" s="16">
         <v>34</v>
       </c>
-      <c r="D74" s="40" t="s">
+      <c r="D74" s="39" t="s">
         <v>49</v>
       </c>
       <c r="I74" s="17">
         <v>445</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
+    <row r="75" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16">
         <v>40003</v>
       </c>
       <c r="C75" s="16">
         <v>35</v>
       </c>
-      <c r="D75" s="40" t="s">
+      <c r="D75" s="39" t="s">
         <v>50</v>
       </c>
       <c r="I75" s="17">
         <v>599</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
+    <row r="76" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16">
         <v>40004</v>
       </c>
       <c r="C76" s="16">
         <v>36</v>
       </c>
-      <c r="D76" s="40" t="s">
+      <c r="D76" s="39" t="s">
         <v>51</v>
       </c>
       <c r="I76" s="17">
         <v>849</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
+    <row r="77" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16">
         <v>40005</v>
       </c>
       <c r="C77" s="16">
         <v>37</v>
       </c>
-      <c r="D77" s="40" t="s">
+      <c r="D77" s="39" t="s">
         <v>52</v>
       </c>
       <c r="I77" s="17">
         <v>799</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
+    <row r="78" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16">
         <v>40006</v>
       </c>
       <c r="C78" s="16">
         <v>38</v>
       </c>
-      <c r="D78" s="40" t="s">
+      <c r="D78" s="39" t="s">
         <v>53</v>
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" s="14" customFormat="1" ht="61.5" customHeight="1">
+    <row r="79" spans="1:9" s="14" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I79" s="15"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>5</v>
       </c>
@@ -6539,7 +6640,7 @@
       </c>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
+    <row r="81" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16">
         <v>50001</v>
       </c>
@@ -6553,7 +6654,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
+    <row r="82" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16">
         <v>50002</v>
       </c>
@@ -6567,7 +6668,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
+    <row r="83" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16">
         <v>50003</v>
       </c>
@@ -6579,7 +6680,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
+    <row r="84" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
         <v>50004</v>
       </c>
@@ -6593,7 +6694,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
+    <row r="85" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="16">
         <v>50005</v>
       </c>
@@ -6605,7 +6706,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
+    <row r="86" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="16">
         <v>50006</v>
       </c>
@@ -6617,7 +6718,7 @@
       </c>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
+    <row r="87" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="16">
         <v>50007</v>
       </c>
@@ -6629,10 +6730,10 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" s="10" customFormat="1" ht="46.5" customHeight="1">
+    <row r="88" spans="1:9" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I88" s="11"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>6</v>
       </c>
@@ -6641,92 +6742,93 @@
       </c>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
-      <c r="A90" s="16">
+    <row r="90" spans="1:9" s="49" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="48">
         <v>60001</v>
       </c>
-      <c r="C90" s="16">
+      <c r="C90" s="49">
         <v>46</v>
       </c>
-      <c r="D90" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I90" s="17">
+      <c r="D90" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="I90" s="50">
         <v>999</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
-      <c r="A91" s="16">
+    <row r="91" spans="1:9" s="49" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="48">
         <v>60002</v>
       </c>
-      <c r="C91" s="16">
+      <c r="C91" s="49">
         <v>47</v>
       </c>
-      <c r="D91" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I91" s="17">
+      <c r="D91" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="I91" s="50">
         <v>845</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
-      <c r="A92" s="16">
+    <row r="92" spans="1:9" s="49" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="48">
         <v>60003</v>
       </c>
-      <c r="C92" s="16">
+      <c r="C92" s="49">
         <v>48</v>
       </c>
-      <c r="D92" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="I92" s="17">
+      <c r="D92" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="I92" s="50">
         <v>1275</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
-      <c r="A93" s="16">
+    <row r="93" spans="1:9" s="49" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="48">
         <v>60004</v>
       </c>
-      <c r="C93" s="16">
+      <c r="C93" s="49">
         <v>49</v>
       </c>
-      <c r="D93" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I93" s="17">
+      <c r="D93" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="I93" s="50">
         <v>999</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
-      <c r="A94" s="16">
+    <row r="94" spans="1:9" s="49" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="48">
         <v>60005</v>
       </c>
-      <c r="C94" s="16">
+      <c r="C94" s="49">
         <v>50</v>
       </c>
-      <c r="D94" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I94" s="17">
+      <c r="D94" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="I94" s="50">
         <v>1349</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="16" customFormat="1" ht="128.1" customHeight="1">
-      <c r="A95" s="16">
+    <row r="95" spans="1:9" s="49" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="48">
         <v>60006</v>
       </c>
-      <c r="C95" s="16">
+      <c r="C95" s="49">
         <v>51</v>
       </c>
-      <c r="D95" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I95" s="17"/>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="1:9" ht="15">
+      <c r="D95" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="F95" s="51"/>
+      <c r="I95" s="50"/>
+    </row>
+    <row r="96" spans="1:9" s="10" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I96" s="11"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>7</v>
       </c>
@@ -6738,712 +6840,768 @@
       </c>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9">
-      <c r="A98">
+    <row r="98" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="18">
         <v>70001</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="19">
         <v>52</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H98" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I98" s="20">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="22" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="21"/>
+      <c r="D99" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I99" s="23"/>
+    </row>
+    <row r="100" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="18">
+        <v>70002</v>
+      </c>
+      <c r="C100" s="19">
+        <v>53</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H100" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I100" s="20">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="22" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="21"/>
+      <c r="D101" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I101" s="23"/>
+    </row>
+    <row r="102" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="18">
+        <v>70003</v>
+      </c>
+      <c r="C102" s="19">
+        <v>54</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F102" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H102" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I102" s="20">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="22" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="21"/>
+      <c r="D103" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I103" s="23"/>
+    </row>
+    <row r="104" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="18">
+        <v>70004</v>
+      </c>
+      <c r="C104" s="19">
+        <v>55</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G104" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H104" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I104" s="20">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="22" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="21"/>
+      <c r="D105" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I105" s="23"/>
+    </row>
+    <row r="106" spans="1:9" s="14" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I106" s="15"/>
+    </row>
+    <row r="107" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>8</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E107" t="s">
+        <v>21</v>
+      </c>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="18">
+        <v>80001</v>
+      </c>
+      <c r="C108" s="19">
+        <v>56</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G108" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H108" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I108" s="20">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="22" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="21"/>
+      <c r="D109" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I109" s="23"/>
+    </row>
+    <row r="110" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="18">
+        <v>80002</v>
+      </c>
+      <c r="C110" s="19">
+        <v>57</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G110" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H110" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I110" s="20">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="22" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="21"/>
+      <c r="D111" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I111" s="23"/>
+    </row>
+    <row r="112" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="18">
+        <v>80003</v>
+      </c>
+      <c r="C112" s="19">
+        <v>58</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H112" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I112" s="20">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="22" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="21"/>
+      <c r="D113" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I113" s="23"/>
+    </row>
+    <row r="114" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="18">
+        <v>80004</v>
+      </c>
+      <c r="C114" s="19">
+        <v>59</v>
+      </c>
+      <c r="D114" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E114" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H114" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I114" s="20">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="22" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="21"/>
+      <c r="D115" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I115" s="23"/>
+    </row>
+    <row r="116" spans="1:10" s="45" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I116" s="46"/>
+    </row>
+    <row r="117" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>9</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E117" t="s">
+        <v>21</v>
+      </c>
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>90001</v>
+      </c>
+      <c r="C118">
+        <v>60</v>
+      </c>
+      <c r="D118" t="s">
+        <v>80</v>
+      </c>
+      <c r="E118" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118" t="s">
+        <v>6</v>
+      </c>
+      <c r="G118" t="s">
+        <v>7</v>
+      </c>
+      <c r="H118" t="s">
+        <v>24</v>
+      </c>
+      <c r="I118" s="1">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>90002</v>
+      </c>
+      <c r="C119">
+        <v>61</v>
+      </c>
+      <c r="D119" t="s">
+        <v>81</v>
+      </c>
+      <c r="E119" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119" t="s">
+        <v>6</v>
+      </c>
+      <c r="G119" t="s">
+        <v>7</v>
+      </c>
+      <c r="H119" t="s">
+        <v>24</v>
+      </c>
+      <c r="I119" s="1">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>90003</v>
+      </c>
+      <c r="C120">
+        <v>62</v>
+      </c>
+      <c r="D120" t="s">
+        <v>82</v>
+      </c>
+      <c r="E120" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" t="s">
+        <v>6</v>
+      </c>
+      <c r="G120" t="s">
+        <v>7</v>
+      </c>
+      <c r="H120" t="s">
+        <v>24</v>
+      </c>
+      <c r="I120" s="1">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>90004</v>
+      </c>
+      <c r="C121">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>83</v>
+      </c>
+      <c r="E121" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121" t="s">
+        <v>6</v>
+      </c>
+      <c r="G121" t="s">
+        <v>7</v>
+      </c>
+      <c r="H121" t="s">
+        <v>24</v>
+      </c>
+      <c r="I121" s="1">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>10</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E123" t="s">
+        <v>21</v>
+      </c>
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>100001</v>
+      </c>
+      <c r="C124">
+        <v>64</v>
+      </c>
+      <c r="D124" t="s">
+        <v>85</v>
+      </c>
+      <c r="I124" s="1">
+        <v>255</v>
+      </c>
+      <c r="J124" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>11</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E126" t="s">
+        <v>21</v>
+      </c>
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>110001</v>
+      </c>
+      <c r="C127">
+        <v>65</v>
+      </c>
+      <c r="D127" t="s">
+        <v>87</v>
+      </c>
+      <c r="I127" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>120001</v>
+      </c>
+      <c r="B129">
+        <v>12</v>
+      </c>
+      <c r="C129">
+        <v>66</v>
+      </c>
+      <c r="D129" t="s">
+        <v>88</v>
+      </c>
+      <c r="E129" t="s">
+        <v>21</v>
+      </c>
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>13</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I131" s="1">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>130001</v>
+      </c>
+      <c r="C132">
+        <v>67</v>
+      </c>
+      <c r="D132" t="s">
+        <v>90</v>
+      </c>
+      <c r="I132" s="1">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>130002</v>
+      </c>
+      <c r="C133">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>91</v>
+      </c>
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="1:9" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I134" s="38"/>
+    </row>
+    <row r="135" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>14</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="1:9" s="41" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="40">
+        <v>140001</v>
+      </c>
+      <c r="C136" s="41">
+        <v>69</v>
+      </c>
+      <c r="D136" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E136" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="I136" s="42">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" s="41" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="40">
+        <v>140002</v>
+      </c>
+      <c r="C137" s="41">
         <v>70</v>
       </c>
-      <c r="E98" t="s">
-        <v>23</v>
-      </c>
-      <c r="F98" t="s">
-        <v>6</v>
-      </c>
-      <c r="G98" t="s">
-        <v>7</v>
-      </c>
-      <c r="H98" t="s">
-        <v>24</v>
-      </c>
-      <c r="I98" s="1">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99">
-        <v>70002</v>
-      </c>
-      <c r="C99">
-        <v>53</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="D137" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E137" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="I137" s="42">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" s="41" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="40">
+        <v>140003</v>
+      </c>
+      <c r="C138" s="41">
         <v>71</v>
       </c>
-      <c r="E99" t="s">
-        <v>23</v>
-      </c>
-      <c r="F99" t="s">
-        <v>6</v>
-      </c>
-      <c r="G99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H99" t="s">
-        <v>24</v>
-      </c>
-      <c r="I99" s="1">
+      <c r="D138" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E138" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="I138" s="42">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" s="41" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="40">
+        <v>140004</v>
+      </c>
+      <c r="C139" s="41">
+        <v>72</v>
+      </c>
+      <c r="D139" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E139" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="I139" s="42"/>
+    </row>
+    <row r="140" spans="1:9" s="41" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="40">
+        <v>140005</v>
+      </c>
+      <c r="C140" s="41">
+        <v>73</v>
+      </c>
+      <c r="D140" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E140" s="43"/>
+      <c r="F140" s="39"/>
+      <c r="I140" s="42">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" s="41" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="40">
+        <v>140006</v>
+      </c>
+      <c r="C141" s="41">
+        <v>74</v>
+      </c>
+      <c r="D141" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E141" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="I141" s="42">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" s="41" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="40">
+        <v>140007</v>
+      </c>
+      <c r="C142" s="41">
+        <v>75</v>
+      </c>
+      <c r="D142" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E142" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="I142" s="42">
         <v>1299</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
-      <c r="A100">
-        <v>70003</v>
-      </c>
-      <c r="C100">
-        <v>54</v>
-      </c>
-      <c r="D100" t="s">
-        <v>72</v>
-      </c>
-      <c r="E100" t="s">
-        <v>23</v>
-      </c>
-      <c r="F100" t="s">
-        <v>6</v>
-      </c>
-      <c r="G100" t="s">
-        <v>7</v>
-      </c>
-      <c r="H100" t="s">
-        <v>24</v>
-      </c>
-      <c r="I100" s="1">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101">
-        <v>70004</v>
-      </c>
-      <c r="C101">
-        <v>55</v>
-      </c>
-      <c r="D101" t="s">
-        <v>73</v>
-      </c>
-      <c r="E101" t="s">
-        <v>23</v>
-      </c>
-      <c r="F101" t="s">
-        <v>6</v>
-      </c>
-      <c r="G101" t="s">
-        <v>7</v>
-      </c>
-      <c r="H101" t="s">
-        <v>24</v>
-      </c>
-      <c r="I101" s="1">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="1:9" ht="15">
-      <c r="B103">
-        <v>8</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E103" t="s">
-        <v>21</v>
-      </c>
-      <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104">
-        <v>80001</v>
-      </c>
-      <c r="C104">
-        <v>56</v>
-      </c>
-      <c r="D104" t="s">
-        <v>75</v>
-      </c>
-      <c r="E104" t="s">
-        <v>23</v>
-      </c>
-      <c r="F104" t="s">
-        <v>6</v>
-      </c>
-      <c r="G104" t="s">
-        <v>7</v>
-      </c>
-      <c r="H104" t="s">
-        <v>24</v>
-      </c>
-      <c r="I104" s="1">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105">
-        <v>80002</v>
-      </c>
-      <c r="C105">
-        <v>57</v>
-      </c>
-      <c r="D105" t="s">
+    <row r="143" spans="1:9" s="41" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="40">
+        <v>140008</v>
+      </c>
+      <c r="C143" s="41">
         <v>76</v>
       </c>
-      <c r="E105" t="s">
-        <v>23</v>
-      </c>
-      <c r="F105" t="s">
-        <v>6</v>
-      </c>
-      <c r="G105" t="s">
-        <v>7</v>
-      </c>
-      <c r="H105" t="s">
-        <v>24</v>
-      </c>
-      <c r="I105" s="1">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106">
-        <v>80003</v>
-      </c>
-      <c r="C106">
-        <v>58</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="D143" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E143" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="I143" s="42">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="41" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="40">
+        <v>140009</v>
+      </c>
+      <c r="C144" s="41">
         <v>77</v>
       </c>
-      <c r="E106" t="s">
-        <v>23</v>
-      </c>
-      <c r="F106" t="s">
-        <v>6</v>
-      </c>
-      <c r="G106" t="s">
-        <v>7</v>
-      </c>
-      <c r="H106" t="s">
-        <v>24</v>
-      </c>
-      <c r="I106" s="1">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107">
-        <v>80004</v>
-      </c>
-      <c r="C107">
-        <v>59</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="D144" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E144" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="I144" s="42">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" s="41" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="40">
+        <v>140010</v>
+      </c>
+      <c r="C145" s="41">
         <v>78</v>
       </c>
-      <c r="E107" t="s">
-        <v>23</v>
-      </c>
-      <c r="F107" t="s">
-        <v>6</v>
-      </c>
-      <c r="G107" t="s">
-        <v>7</v>
-      </c>
-      <c r="H107" t="s">
-        <v>24</v>
-      </c>
-      <c r="I107" s="1">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="1:9" ht="15">
-      <c r="B109">
-        <v>9</v>
-      </c>
-      <c r="D109" s="6" t="s">
+      <c r="D145" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E145" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="I145" s="42">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="41" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="40">
+        <v>140011</v>
+      </c>
+      <c r="C146" s="41">
         <v>79</v>
       </c>
-      <c r="E109" t="s">
-        <v>21</v>
-      </c>
-      <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110">
-        <v>90001</v>
-      </c>
-      <c r="C110">
-        <v>60</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="D146" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="I146" s="42"/>
+    </row>
+    <row r="147" spans="1:9" s="41" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="40">
+        <v>140012</v>
+      </c>
+      <c r="C147" s="41">
         <v>80</v>
       </c>
-      <c r="E110" t="s">
-        <v>23</v>
-      </c>
-      <c r="F110" t="s">
-        <v>6</v>
-      </c>
-      <c r="G110" t="s">
-        <v>7</v>
-      </c>
-      <c r="H110" t="s">
-        <v>24</v>
-      </c>
-      <c r="I110" s="1">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111">
-        <v>90002</v>
-      </c>
-      <c r="C111">
-        <v>61</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="D147" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="I147" s="42">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" s="41" customFormat="1" ht="128.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="40">
+        <v>140013</v>
+      </c>
+      <c r="C148" s="41">
         <v>81</v>
       </c>
-      <c r="E111" t="s">
-        <v>23</v>
-      </c>
-      <c r="F111" t="s">
-        <v>6</v>
-      </c>
-      <c r="G111" t="s">
-        <v>7</v>
-      </c>
-      <c r="H111" t="s">
-        <v>24</v>
-      </c>
-      <c r="I111" s="1">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112">
-        <v>90003</v>
-      </c>
-      <c r="C112">
-        <v>62</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="D148" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="I148" s="42">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" s="45" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I149" s="46"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B150">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>104</v>
+      </c>
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>150001</v>
+      </c>
+      <c r="C151">
         <v>82</v>
       </c>
-      <c r="E112" t="s">
-        <v>23</v>
-      </c>
-      <c r="F112" t="s">
-        <v>6</v>
-      </c>
-      <c r="G112" t="s">
-        <v>7</v>
-      </c>
-      <c r="H112" t="s">
-        <v>24</v>
-      </c>
-      <c r="I112" s="1">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
-      <c r="A113">
-        <v>90004</v>
-      </c>
-      <c r="C113">
-        <v>63</v>
-      </c>
-      <c r="D113" t="s">
-        <v>83</v>
-      </c>
-      <c r="E113" t="s">
-        <v>23</v>
-      </c>
-      <c r="F113" t="s">
-        <v>6</v>
-      </c>
-      <c r="G113" t="s">
-        <v>7</v>
-      </c>
-      <c r="H113" t="s">
-        <v>24</v>
-      </c>
-      <c r="I113" s="1">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
-      <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="1:10" ht="15">
-      <c r="B115">
-        <v>10</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E115" t="s">
-        <v>21</v>
-      </c>
-      <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="A116">
-        <v>100001</v>
-      </c>
-      <c r="C116">
-        <v>64</v>
-      </c>
-      <c r="D116" t="s">
-        <v>85</v>
-      </c>
-      <c r="I116" s="1">
-        <v>255</v>
-      </c>
-      <c r="J116" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
-      <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="1:10" ht="15">
-      <c r="B118">
-        <v>11</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E118" t="s">
-        <v>21</v>
-      </c>
-      <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="1:10">
-      <c r="A119">
-        <v>110001</v>
-      </c>
-      <c r="C119">
-        <v>65</v>
-      </c>
-      <c r="D119" t="s">
-        <v>87</v>
-      </c>
-      <c r="I119" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
-      <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="1:10">
-      <c r="A121">
-        <v>120001</v>
-      </c>
-      <c r="B121">
-        <v>12</v>
-      </c>
-      <c r="C121">
-        <v>66</v>
-      </c>
-      <c r="D121" t="s">
-        <v>88</v>
-      </c>
-      <c r="E121" t="s">
-        <v>21</v>
-      </c>
-      <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="1:10">
-      <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="1:10" ht="15">
-      <c r="B123">
-        <v>13</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="I123" s="1">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
-      <c r="A124">
-        <v>130001</v>
-      </c>
-      <c r="C124">
-        <v>67</v>
-      </c>
-      <c r="D124" t="s">
-        <v>90</v>
-      </c>
-      <c r="I124" s="1">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
-      <c r="A125">
-        <v>130002</v>
-      </c>
-      <c r="C125">
-        <v>68</v>
-      </c>
-      <c r="D125" t="s">
-        <v>91</v>
-      </c>
-      <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="1:10" s="38" customFormat="1" ht="47.25" customHeight="1">
-      <c r="I126" s="39"/>
-    </row>
-    <row r="127" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B127">
-        <v>14</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="I127" s="1"/>
-    </row>
-    <row r="128" spans="1:10" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A128" s="41">
-        <v>140001</v>
-      </c>
-      <c r="C128" s="42">
-        <v>69</v>
-      </c>
-      <c r="D128" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E128" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="I128" s="43">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A129" s="41">
-        <v>140002</v>
-      </c>
-      <c r="C129" s="42">
-        <v>70</v>
-      </c>
-      <c r="D129" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="E129" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="I129" s="43">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A130" s="41">
-        <v>140003</v>
-      </c>
-      <c r="C130" s="42">
-        <v>71</v>
-      </c>
-      <c r="D130" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E130" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I130" s="43">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A131" s="41">
-        <v>140004</v>
-      </c>
-      <c r="C131" s="42">
-        <v>72</v>
-      </c>
-      <c r="D131" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="E131" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="I131" s="43"/>
-    </row>
-    <row r="132" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A132" s="41">
-        <v>140005</v>
-      </c>
-      <c r="C132" s="42">
-        <v>73</v>
-      </c>
-      <c r="D132" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="E132" s="44"/>
-      <c r="F132" s="40"/>
-      <c r="I132" s="43">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A133" s="41">
-        <v>140006</v>
-      </c>
-      <c r="C133" s="42">
-        <v>74</v>
-      </c>
-      <c r="D133" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="E133" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="I133" s="43">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A134" s="41">
-        <v>140007</v>
-      </c>
-      <c r="C134" s="42">
-        <v>75</v>
-      </c>
-      <c r="D134" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="E134" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="I134" s="43">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A135" s="41">
-        <v>140008</v>
-      </c>
-      <c r="C135" s="42">
-        <v>76</v>
-      </c>
-      <c r="D135" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E135" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="I135" s="43">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A136" s="41">
-        <v>140009</v>
-      </c>
-      <c r="C136" s="42">
-        <v>77</v>
-      </c>
-      <c r="D136" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E136" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="I136" s="43">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A137" s="41">
-        <v>140010</v>
-      </c>
-      <c r="C137" s="42">
-        <v>78</v>
-      </c>
-      <c r="D137" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="E137" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="I137" s="43">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A138" s="41">
-        <v>140011</v>
-      </c>
-      <c r="C138" s="42">
-        <v>79</v>
-      </c>
-      <c r="D138" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="I138" s="43"/>
-    </row>
-    <row r="139" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A139" s="41">
-        <v>140012</v>
-      </c>
-      <c r="C139" s="42">
-        <v>80</v>
-      </c>
-      <c r="D139" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="I139" s="43">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" s="42" customFormat="1" ht="128.1" customHeight="1" thickBot="1">
-      <c r="A140" s="41">
-        <v>140013</v>
-      </c>
-      <c r="C140" s="42">
-        <v>81</v>
-      </c>
-      <c r="D140" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="I140" s="43">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="B142">
-        <v>15</v>
-      </c>
-      <c r="D142" t="s">
-        <v>104</v>
-      </c>
-      <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143">
-        <v>150001</v>
-      </c>
-      <c r="C143">
-        <v>82</v>
-      </c>
-      <c r="D143" t="s">
+      <c r="D151" t="s">
         <v>105</v>
       </c>
-      <c r="I143" s="1">
+      <c r="I151" s="1">
         <v>699</v>
       </c>
     </row>
